--- a/Document/7.Testing/Test_Case.xlsx
+++ b/Document/7.Testing/Test_Case.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="3" r:id="rId1"/>
-    <sheet name="Login" sheetId="12" r:id="rId2"/>
-    <sheet name="Logout" sheetId="11" r:id="rId3"/>
-    <sheet name="View accomodation" sheetId="10" r:id="rId4"/>
-    <sheet name="Booking accommodation" sheetId="19" r:id="rId5"/>
-    <sheet name="Change Password" sheetId="15" r:id="rId6"/>
-    <sheet name="Update Information" sheetId="16" r:id="rId7"/>
-    <sheet name="Add zone" sheetId="20" r:id="rId8"/>
-    <sheet name="Update zone" sheetId="21" r:id="rId9"/>
-    <sheet name="Delete zone" sheetId="22" r:id="rId10"/>
-    <sheet name="Add room" sheetId="23" r:id="rId11"/>
-    <sheet name="Update room" sheetId="24" r:id="rId12"/>
-    <sheet name="Delete room" sheetId="25" r:id="rId13"/>
+    <sheet name="View accomodation" sheetId="10" r:id="rId2"/>
+    <sheet name="Login" sheetId="12" r:id="rId3"/>
+    <sheet name="Logout" sheetId="11" r:id="rId4"/>
+    <sheet name="View list of zone" sheetId="26" r:id="rId5"/>
+    <sheet name="Add zone" sheetId="20" r:id="rId6"/>
+    <sheet name="Update zone" sheetId="21" r:id="rId7"/>
+    <sheet name="Delete zone" sheetId="22" r:id="rId8"/>
+    <sheet name="View list of room" sheetId="27" r:id="rId9"/>
+    <sheet name="Add room" sheetId="23" r:id="rId10"/>
+    <sheet name="Update room" sheetId="24" r:id="rId11"/>
+    <sheet name="Delete room" sheetId="25" r:id="rId12"/>
+    <sheet name="Booking accommodation" sheetId="19" r:id="rId13"/>
+    <sheet name="Change Password" sheetId="15" r:id="rId14"/>
+    <sheet name="Update Information" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="217">
   <si>
     <t>Test case id</t>
   </si>
@@ -116,9 +118,6 @@
   </si>
   <si>
     <t>Enter the wrong email and correct password.</t>
-  </si>
-  <si>
-    <t>TC-05</t>
   </si>
   <si>
     <t>Enter the correct email and password on both fields.</t>
@@ -158,16 +157,7 @@
     <t>Register</t>
   </si>
   <si>
-    <t>S1R01</t>
-  </si>
-  <si>
     <t>User must accesses the website.</t>
-  </si>
-  <si>
-    <t>S1R02</t>
-  </si>
-  <si>
-    <t>S1R03</t>
   </si>
   <si>
     <t>Description</t>
@@ -244,9 +234,6 @@
     <t>Close</t>
   </si>
   <si>
-    <t>S1R04</t>
-  </si>
-  <si>
     <t>Register with invalid e-mail account</t>
   </si>
   <si>
@@ -267,9 +254,6 @@
     <t>The screen displays "E-mail không hợp lệ" message box.</t>
   </si>
   <si>
-    <t>S1R05</t>
-  </si>
-  <si>
     <t>1) Open browser 
 2) Type the link: 
 3) Click on "Đăng ký" button
@@ -284,9 +268,6 @@
     <t>The screen displays "E-mail không được chứa ký tự đặc biệt" message box.</t>
   </si>
   <si>
-    <t>S1R06</t>
-  </si>
-  <si>
     <t>Register without e-mail account.</t>
   </si>
   <si>
@@ -310,9 +291,6 @@
 6) Click on "Đăng ký"</t>
   </si>
   <si>
-    <t>S1R07</t>
-  </si>
-  <si>
     <t>1) "Họ tên" textbox: Thanh Van
 2) "E-mail" textbox: 'thanhvan@gmail.com'
 3) "Mật khẩu": '1234'
@@ -325,9 +303,6 @@
     <t>Register with less character than size of password</t>
   </si>
   <si>
-    <t>S1R08</t>
-  </si>
-  <si>
     <t>Register with more character than size of password</t>
   </si>
   <si>
@@ -337,9 +312,6 @@
 4) "Xác nhận mật khẩu": '12345678910abcdefghijklmn'</t>
   </si>
   <si>
-    <t>S1R09</t>
-  </si>
-  <si>
     <t>Register with invalid password</t>
   </si>
   <si>
@@ -350,9 +322,6 @@
   </si>
   <si>
     <t>The screen displays "Mật khẩu không hợp lệ" message box.</t>
-  </si>
-  <si>
-    <t>S1R10</t>
   </si>
   <si>
     <t>Register with password and confirm password are not match.</t>
@@ -391,9 +360,6 @@
     <t>The screen displays "Mật khẩu không giống nhau" message box.</t>
   </si>
   <si>
-    <t>S1R11</t>
-  </si>
-  <si>
     <t>Register without password</t>
   </si>
   <si>
@@ -414,9 +380,6 @@
 3) Don't input password for "Mật khẩu" textbox
 4) Input vail information for others textbox
 5) Click on "Đăng ký"</t>
-  </si>
-  <si>
-    <t>S1R12</t>
   </si>
   <si>
     <t>Register without confirm password</t>
@@ -466,12 +429,6 @@
 3) Input the name which has length larger 100 characters for "Họ tên" textbox.
 4) Input the valid information for others textbox.
 5) Click on "Đăng ký" textbox</t>
-  </si>
-  <si>
-    <t>S1R13</t>
-  </si>
-  <si>
-    <t>S1R14</t>
   </si>
   <si>
     <t>S1W01</t>
@@ -803,6 +760,177 @@
 6) Click into 
 7) Click into "Chỉnh sửa thông tin" button
 8) Fill field "Số điện thoại:" is "01686230218" and "Địa chỉ:" is "123 adsb wwwww"</t>
+  </si>
+  <si>
+    <t>TC_R01</t>
+  </si>
+  <si>
+    <t>TC_R02</t>
+  </si>
+  <si>
+    <t>TC_R03</t>
+  </si>
+  <si>
+    <t>TC_R04</t>
+  </si>
+  <si>
+    <t>TC_R05</t>
+  </si>
+  <si>
+    <t>TC_R06</t>
+  </si>
+  <si>
+    <t>TC_R07</t>
+  </si>
+  <si>
+    <t>TC_R08</t>
+  </si>
+  <si>
+    <t>TC_R09</t>
+  </si>
+  <si>
+    <t>TC_R10</t>
+  </si>
+  <si>
+    <t>TC_R11</t>
+  </si>
+  <si>
+    <t>TC_R12</t>
+  </si>
+  <si>
+    <t>TC_R13</t>
+  </si>
+  <si>
+    <t>TC_R14</t>
+  </si>
+  <si>
+    <t>TC_LOGIN05</t>
+  </si>
+  <si>
+    <t>Add a zone with valid information</t>
+  </si>
+  <si>
+    <t>1) "Tên khu": 'Trọ giá rẻ'
+2) "Địa chỉ": '41 Nguyễn Khánh Toàn'
+3) "Tỉnh/Thành phố": 'Đà Nẵng'
+4) "Quận/Huyện": 'Hải Châu'
+5) "Phường/Xã": 'Hòa Cường Bắc'</t>
+  </si>
+  <si>
+    <t>TC_WLOZ01</t>
+  </si>
+  <si>
+    <t>1) Click on "Thêm khu"
+2) Input valid information for textboxes
+3) Click on "Lưu" button</t>
+  </si>
+  <si>
+    <t>The screen display "Thông tin dãy trọ đã được lưu thành công" message box. Brower switch to "View list of zone" page and view information saved.</t>
+  </si>
+  <si>
+    <t>Brower switch to "View list of zone" page and view information saved.</t>
+  </si>
+  <si>
+    <t>1) Click on "Quản lí khu"</t>
+  </si>
+  <si>
+    <t>Brower switch to "View list of zone" page.</t>
+  </si>
+  <si>
+    <t>Brower switch to "View list of room" page.</t>
+  </si>
+  <si>
+    <t>1) Click on button in "Chi tiết" columm of any zone.</t>
+  </si>
+  <si>
+    <t>Add a zone without zone name</t>
+  </si>
+  <si>
+    <t>The screen display "Vui lòng nhập tên khu" message box.</t>
+  </si>
+  <si>
+    <t>Add a zone without address</t>
+  </si>
+  <si>
+    <t>1) "Tên khu": Empty
+2) "Địa chỉ": '123 Tố Hữu'
+3) "Tỉnh/Thành phố": 'Đà Nẵng'
+4) "Quận/Huyện": 'Hải Châu'
+5) "Phường/Xã": 'Bình Hiên'</t>
+  </si>
+  <si>
+    <t>1) "Tên khu": 'Trọ giá rẻ'
+2) "Địa chỉ": Empty
+3) "Tỉnh/Thành phố": 'Đà Nẵng'
+4) "Quận/Huyện": 'Hải Châu'
+5) "Phường/Xã": 'Bình Hiên'</t>
+  </si>
+  <si>
+    <t>The screen display "Vui lòng nhập địa chỉ" message box.</t>
+  </si>
+  <si>
+    <t>Add a zone without province/ city</t>
+  </si>
+  <si>
+    <t>1) Click on "Thêm khu"
+2) Don't choose for "Tỉnh/ Thành phố" select option and input valid information for other boxes
+3) Click on "Lưu" button</t>
+  </si>
+  <si>
+    <t>1) Click on "Thêm khu"
+2) Don't input for "Địa chỉ" textbox and input valid information for other boxes
+3) Click on "Lưu" button</t>
+  </si>
+  <si>
+    <t>1) Click on "Thêm khu"
+2) Don't input for "Tên khu" textbox and input valid information for other boxes
+3) Click on "Lưu" button</t>
+  </si>
+  <si>
+    <t>The screen display "Bạn chưa chọn Tỉnh/ Thành phố" message box.</t>
+  </si>
+  <si>
+    <t>Add a zone without ward</t>
+  </si>
+  <si>
+    <t>1) "Tên khu": 'Trọ giá rẻ'
+2) "Địa chỉ": '123 Tố Hữu'
+3) "Tỉnh/Thành phố": Empty
+4) "Quận/Huyện": 'Hải Châu'
+5) "Phường/Xã": 'Bình Hiên'</t>
+  </si>
+  <si>
+    <t>1) "Tên khu": 'Trọ giá rẻ'
+2) "Địa chỉ": '123 Tố Hữu'
+3) "Tỉnh/Thành phố": 'Đà Nẵng'
+4) "Quận/Huyện": Empty
+5) "Phường/Xã": 'Bình Hiên'</t>
+  </si>
+  <si>
+    <t>Add a zone without district</t>
+  </si>
+  <si>
+    <t>1) "Tên khu": 'Trọ giá rẻ'
+2) "Địa chỉ": '123 Tố Hữu'
+3) "Tỉnh/Thành phố": 'Đà Nẵng'
+4) "Quận/Huyện": 'Hải Châu'
+5) "Phường/Xã": Empty</t>
+  </si>
+  <si>
+    <t>1) Click on "Thêm khu"
+2) Don't choose for "Quận/ Huyện" select option and input valid information for other boxes
+3) Click on "Lưu" button</t>
+  </si>
+  <si>
+    <t>The screen display "Bạn chưa chọn Quận/ Huyện" message box.</t>
+  </si>
+  <si>
+    <t>1) Click on "Thêm khu"
+2) Don't choose for "Phường/ Xã" select option and input valid information for other boxes
+3) Click on "Lưu" button</t>
+  </si>
+  <si>
+    <t>The screen display "Bạn chưa chọn Phường/ Xã " message box.</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1185,21 +1313,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1241,6 +1354,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1255,6 +1380,24 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1539,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,16 +1701,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E1" s="30"/>
       <c r="F1" s="31"/>
@@ -1578,13 +1721,13 @@
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="46"/>
       <c r="B2" s="33" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="31"/>
@@ -1595,13 +1738,13 @@
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
       <c r="B3" s="36" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C3" s="29">
         <v>1</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="31"/>
@@ -1614,7 +1757,7 @@
       <c r="B4" s="36"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="31"/>
@@ -1622,23 +1765,23 @@
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
     </row>
-    <row r="5" spans="1:10" s="59" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
+    <row r="5" spans="1:10" s="54" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -1662,427 +1805,427 @@
         <v>8</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2093,62 +2236,1780 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="56.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="61"/>
+      <c r="B2" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="12" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" s="12" customFormat="1" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" s="12" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" s="12" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" s="12" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" s="12" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" s="12" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="61"/>
+      <c r="B2" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="12" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" s="12" customFormat="1" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" s="12" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" s="12" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" s="12" customFormat="1" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" s="12" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" s="12" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" s="12" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="61"/>
+      <c r="B2" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="12" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" s="12" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" s="12" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" s="12" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" s="12" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" s="12" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" s="12" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" s="12" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="16" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="22" style="12" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="25" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2166,16 +4027,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E1" s="30"/>
       <c r="F1" s="31"/>
@@ -2186,13 +4047,13 @@
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="46"/>
       <c r="B2" s="33" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="31"/>
@@ -2203,13 +4064,13 @@
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
       <c r="B3" s="36" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C3" s="29">
         <v>1</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="31"/>
@@ -2222,7 +4083,7 @@
       <c r="B4" s="36"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="31"/>
@@ -2241,104 +4102,134 @@
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
-    </row>
-    <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-    </row>
-    <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-    </row>
-    <row r="10" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="7" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="99" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="66" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>33</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="24" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="99" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
@@ -2347,10 +4238,10 @@
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="24" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>30</v>
@@ -2359,283 +4250,214 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>10</v>
-      </c>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="47"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="47"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="47"/>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="B17" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="C17" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="52"/>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
+      <c r="D17" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="52" t="s">
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="47"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="B18" s="52"/>
+      <c r="C18" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="D18" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="52"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
+      <c r="E18" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="52" t="s">
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="47"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="B19" s="52"/>
+      <c r="C19" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="D19" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="52"/>
-    </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="s">
+      <c r="E19" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="52" t="s">
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="47"/>
+    </row>
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="B20" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="C20" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="52"/>
-    </row>
-    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
+      <c r="D20" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="E20" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="F20" s="51"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="47"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="B21" s="52"/>
+      <c r="C21" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="52"/>
-    </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
+      <c r="D21" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="52" t="s">
+      <c r="E21" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="F21" s="51"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="47"/>
+    </row>
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="B22" s="52"/>
+      <c r="C22" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="52"/>
-    </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
+      <c r="D22" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="52" t="s">
+      <c r="E22" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="52"/>
-    </row>
-    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="E23" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="52"/>
-    </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="E24" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="52"/>
-    </row>
-    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="D25" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="52"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
@@ -2657,17 +4479,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
-        <v>118</v>
+      <c r="A1" s="64" t="s">
+        <v>103</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E1" s="30"/>
       <c r="F1" s="31"/>
@@ -2676,15 +4498,15 @@
       <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
+      <c r="A2" s="65"/>
       <c r="B2" s="33" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="31"/>
@@ -2695,13 +4517,13 @@
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
       <c r="B3" s="36" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C3" s="29">
         <v>1</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="31"/>
@@ -2714,7 +4536,7 @@
       <c r="B4" s="36"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="31"/>
@@ -2735,33 +4557,33 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="69"/>
+        <v>113</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="68"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
+        <v>114</v>
+      </c>
+      <c r="B7" s="66"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -2838,38 +4660,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD8"/>
+      <selection sqref="A1:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>118</v>
+      <c r="A1" s="62" t="s">
+        <v>103</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E1" s="30"/>
       <c r="F1" s="31"/>
@@ -2878,15 +4700,15 @@
       <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="63"/>
       <c r="B2" s="33" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="31"/>
@@ -2897,13 +4719,13 @@
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
       <c r="B3" s="36" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C3" s="29">
         <v>1</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="31"/>
@@ -2916,7 +4738,7 @@
       <c r="B4" s="36"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="31"/>
@@ -2924,660 +4746,7 @@
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="25" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="29">
-        <v>1</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-    </row>
-    <row r="4" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="29">
-        <v>1</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-    </row>
-    <row r="4" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>2</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>3</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>4</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>5</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="16" style="12" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="22" style="12" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-    </row>
-    <row r="2" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-    </row>
-    <row r="3" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="29">
-        <v>1</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-    </row>
-    <row r="4" spans="1:9" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3588,7 +4757,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
       </c>
@@ -3616,195 +4785,73 @@
       <c r="I6" s="16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="J6" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="12" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>35</v>
+        <v>186</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>2</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>3</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>4</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>5</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>7</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>8</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+        <v>193</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E1" s="30"/>
       <c r="F1" s="31"/>
@@ -3812,16 +4859,16 @@
       <c r="H1" s="32"/>
       <c r="I1" s="32"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="46"/>
       <c r="B2" s="33" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="31"/>
@@ -3829,16 +4876,16 @@
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
       <c r="B3" s="36" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C3" s="29">
         <v>1</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="31"/>
@@ -3846,12 +4893,308 @@
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
     </row>
+    <row r="4" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="12" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="72">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="73" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B8" s="74" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="75" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B9" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I9" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="75" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="74" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I10" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="76" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="I11" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="76" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B12" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="I12" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="76" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="61.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="61"/>
+      <c r="B2" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+    </row>
     <row r="4" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="36"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="31"/>
@@ -3899,157 +5242,135 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="45.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="61"/>
+      <c r="B2" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="29">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" s="12" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="D3" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="D6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" s="12" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="E6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" s="12" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="F6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" s="12" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="G6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" s="12" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="H6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" s="12" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="I6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4058,14 +5379,160 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="63"/>
+      <c r="B2" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="12" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Document/7.Testing/Test_Case.xlsx
+++ b/Document/7.Testing/Test_Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="3" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="Update room" sheetId="24" r:id="rId11"/>
     <sheet name="Delete room" sheetId="25" r:id="rId12"/>
     <sheet name="Booking accommodation" sheetId="19" r:id="rId13"/>
-    <sheet name="Change Password" sheetId="15" r:id="rId14"/>
-    <sheet name="Update Information" sheetId="16" r:id="rId15"/>
+    <sheet name="Report" sheetId="28" r:id="rId14"/>
+    <sheet name="Change Password" sheetId="15" r:id="rId15"/>
+    <sheet name="Update Information" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="384">
   <si>
     <t>Test case id</t>
   </si>
@@ -142,9 +143,6 @@
     <t>Update Information</t>
   </si>
   <si>
-    <t>Register</t>
-  </si>
-  <si>
     <t>User must accesses the website.</t>
   </si>
   <si>
@@ -161,9 +159,6 @@
   </si>
   <si>
     <t>Open</t>
-  </si>
-  <si>
-    <t>Register with full name which contains special characters.</t>
   </si>
   <si>
     <t>1) "Họ tên" textbox: 'Ha // Lan'
@@ -413,20 +408,10 @@
 5) Click on "Đăng ký" textbox</t>
   </si>
   <si>
-    <t>S1W01</t>
-  </si>
-  <si>
-    <t>View detail of 
-accommodation</t>
-  </si>
-  <si>
     <t>1) Open browser 
 2) Type the link: 
 3) Click on any zone in the map.
 4) Click on "Xem chi tiết"</t>
-  </si>
-  <si>
-    <t>S1W02</t>
   </si>
   <si>
     <t>Come back to home page</t>
@@ -1407,7 +1392,233 @@
     <t>Module Name: Booking accommodation</t>
   </si>
   <si>
-    <t>TC_BA01</t>
+    <t>TC_BR01</t>
+  </si>
+  <si>
+    <t>Submit with all valid entered information.</t>
+  </si>
+  <si>
+    <t>TC_VA01</t>
+  </si>
+  <si>
+    <t>TC_VA02</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: 'Lan'
+2) "E-mail" textbox: 'huynhvuhalan.97@gmail.com'
+3) "Số điện thoại": '0375373265'
+4) "Lời nhắn": 'Ngày mai tới xem phòng lúc 16h.'</t>
+  </si>
+  <si>
+    <t>1) Open browser 
+2) Type the link: 
+3) Input information for the boxes
+5) Click on "Gởi yêu cầu" button</t>
+  </si>
+  <si>
+    <t>The screen displays "Yêu cầu của bạ đã được gởi đi. Trong vòng 48h tới nếu không được xác nhận, yêu cầu nỹ sẽ bị hủy." message box and the browser to view home page of RS.</t>
+  </si>
+  <si>
+    <t>TC_BR02</t>
+  </si>
+  <si>
+    <t>Submit without name of renter</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: Empty
+2) "E-mail" textbox: 'huynhvuhalan.97@gmail.com'
+3) "Số điện thoại": '0375373265'
+4) "Lời nhắn": 'Ngày mai tới xem phòng lúc 16h.'</t>
+  </si>
+  <si>
+    <t>The screen displays "Bạn chưa nhập tên" message box.</t>
+  </si>
+  <si>
+    <t>TC_BR03</t>
+  </si>
+  <si>
+    <t>Submit without email of renter</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: 'Lan'
+2) "E-mail" textbox: Empty
+3) "Số điện thoại": '0375373265'
+4) "Lời nhắn": 'Ngày mai tới xem phòng lúc 16h.'</t>
+  </si>
+  <si>
+    <t>The screen displays "Bạn chưa nhập email" message box.</t>
+  </si>
+  <si>
+    <t>TC_BR04</t>
+  </si>
+  <si>
+    <t>Submit without phone number of renter</t>
+  </si>
+  <si>
+    <t>The screen displays "Bạn chưa nhập số điện thoại" message box.</t>
+  </si>
+  <si>
+    <t>TC_BR05</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: 'Lan'
+2) "E-mail" textbox: 'huynhvuhalan.97@gmail.com'
+3) "Số điện thoại": Empty
+4) "Lời nhắn": 'Ngày mai tới xem phòng lúc 16h.'</t>
+  </si>
+  <si>
+    <t>Submit without message of renter</t>
+  </si>
+  <si>
+    <t>The screen displays "Yêu cầu của bạn đã được gởi đi " message box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View detail of 
+accommodation </t>
+  </si>
+  <si>
+    <t>TC_BR06</t>
+  </si>
+  <si>
+    <t>Register with full name contains special characters.</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: 'Ha // Lan'
+2) "E-mail" textbox: 'huynhvuhalan.97@gmail.com'
+3) "Số điện thoại": '0375373265'
+4) "Lời nhắn": 'Ngày mai tới xem phòng lúc 16h.'</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: 'Lan'
+2) "E-mail" textbox: 'huynhvuhalan.97@gmail.com'
+3) "Số điện thoại": '0375373265'
+4) "Lời nhắn": Empty</t>
+  </si>
+  <si>
+    <t>The screen displays "Tên không được chứa kí tự đặt biệt " message box.</t>
+  </si>
+  <si>
+    <t>TC_BR07</t>
+  </si>
+  <si>
+    <t>Register with the name wrong is size</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: 'Ha ghsjfdgikfmd efjdvfijdc gejrkfd vidkf ijvscjnv dfcdsfivkdv fdcvjv dfc dfcdfjed fcasfc fjcdsxf  Lan'
+2) "E-mail" textbox: 'huynhvuhalan.97@gmail.com'
+3) "Số điện thoại": '0375373265'
+4) "Lời nhắn": 'Ngày mai tới xem phòng lúc 16h.'</t>
+  </si>
+  <si>
+    <t>TC_BR08</t>
+  </si>
+  <si>
+    <t>TC_BR09</t>
+  </si>
+  <si>
+    <t>Submit with name contains special characters.</t>
+  </si>
+  <si>
+    <t>Submit with the name is wrong size</t>
+  </si>
+  <si>
+    <t>Submit with invalid e-mail account</t>
+  </si>
+  <si>
+    <t>Submit with e-mail account which contains special characters.</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: 'Lan'
+2) "E-mail" textbox: 'huynhvuhalan.97gmail.com'
+3) "Số điện thoại": '0375373265'
+4) "Lời nhắn": 'Ngày mai tới xem phòng lúc 16h.'</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: 'Lan'
+2) "E-mail" textbox: 'huynhvuhala?*n.97@gmail.com'
+3) "Số điện thoại": '0375373265'
+4) "Lời nhắn": 'Ngày mai tới xem phòng lúc 16h.'</t>
+  </si>
+  <si>
+    <t>TC_BR10</t>
+  </si>
+  <si>
+    <t>Submit with number phone contains special characters.</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: 'Lan'
+2) "E-mail" textbox: 'huynhvuhalan.97@gmail.com'
+3) "Số điện thoại": '&lt;037&amp;5373265'
+4) "Lời nhắn": 'Ngày mai tới xem phòng lúc 16h.'</t>
+  </si>
+  <si>
+    <t>The screen displays "Số điện thoại không hợp lệ" message box.</t>
+  </si>
+  <si>
+    <t>TC_BR11</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: 'Lan'
+2) "E-mail" textbox: 'huynhvuhalan.97@gmail.com'
+3) "Số điện thoại": 'a037b5373265'
+4) "Lời nhắn": 'Ngày mai tới xem phòng lúc 16h.'</t>
+  </si>
+  <si>
+    <t>TC_BR12</t>
+  </si>
+  <si>
+    <t>Submit with message too long</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: 'Lan'
+2) "E-mail" textbox: 'huynhvuhalan.97@gmail.com'
+3) "Số điện thoại": '0375373265'
+4) "Lời nhắn": 'Ngày mai tới xem phòng lúc 16h. Hjndsfmgg jsfms fsjnfm chfn cfhndsmxhvn fdchvnsd xfhnds fxhcnd fxhfndc vhnf vdsnfx awjksnfchasdnfjvhdsnvhfdncv fhv nhvn fjcvnfc vf vndfvhasjhfvn vndfjvhsdfujh'</t>
+  </si>
+  <si>
+    <t>The screen displays "Lời nhắn không được quá 265 kí tự" message box.</t>
+  </si>
+  <si>
+    <t>TC_REPORT01</t>
+  </si>
+  <si>
+    <t>TC_REPORT02</t>
+  </si>
+  <si>
+    <t>TC_REPORT03</t>
+  </si>
+  <si>
+    <t>Report an accomodation was rented</t>
+  </si>
+  <si>
+    <t>1) Open browser 
+2) Type the link: 
+3) Click on "Đã có người thuê" option.
+4) Click on "Gửi" button</t>
+  </si>
+  <si>
+    <t>The screen displays "Báo cáo của bạn đã được gởi đi." message box.</t>
+  </si>
+  <si>
+    <t>The screen displays detail of accommodation.</t>
+  </si>
+  <si>
+    <t>1) Open browser 
+2) Type the link: 
+3) Click on "Sai thông tin" option.
+4) Click on "Gửi" button</t>
+  </si>
+  <si>
+    <t>Report about false information of accomodation</t>
+  </si>
+  <si>
+    <t>Report about an  accomodation has intermediary services</t>
+  </si>
+  <si>
+    <t>1) Open browser 
+2) Type the link: 
+3) Click on "Dịch vụ trung gian" option.
+4) Click on "Gửi" button</t>
   </si>
 </sst>
 </file>
@@ -1772,25 +1983,28 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1802,19 +2016,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2100,8 +2311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2117,43 +2328,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="55"/>
+      <c r="A1" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="56"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="60"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="57"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="59"/>
       <c r="D3" s="58" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E3" s="58"/>
       <c r="F3" s="28"/>
@@ -2161,13 +2372,13 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -2186,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
@@ -2207,413 +2418,413 @@
         <v>8</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="G11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="G12" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B13" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="F18" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="G20" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2652,43 +2863,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="55"/>
+      <c r="A1" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="56"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55" t="s">
-        <v>321</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="60"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="57"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="59"/>
       <c r="D3" s="58" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E3" s="58"/>
       <c r="F3" s="28"/>
@@ -2696,17 +2907,17 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -2733,413 +2944,413 @@
         <v>8</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>191</v>
-      </c>
       <c r="E7" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>192</v>
-      </c>
       <c r="E8" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H13" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H14" s="48" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H15" s="48" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H16" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H17" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B18" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>233</v>
-      </c>
       <c r="G18" s="46" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H18" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H19" s="48" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H20" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I20" s="49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3180,43 +3391,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="55"/>
+      <c r="A1" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="56"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55" t="s">
-        <v>322</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="60"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="57"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="59"/>
       <c r="D3" s="58" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E3" s="58"/>
       <c r="F3" s="28"/>
@@ -3224,17 +3435,17 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -3261,355 +3472,355 @@
         <v>8</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H13" s="43" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H14" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H16" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H17" s="43" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H18" s="43" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3648,40 +3859,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="55"/>
+      <c r="A1" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="56"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="52" t="s">
-        <v>327</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="56"/>
+        <v>322</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="60"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="51" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D3" s="58"/>
       <c r="E3" s="28"/>
@@ -3689,16 +3900,16 @@
       <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -3725,61 +3936,61 @@
         <v>8</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="42" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H7" s="42" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="42" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H8" s="42" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3797,10 +4008,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3810,49 +4021,49 @@
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="55"/>
+      <c r="A1" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="56"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="60"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="57"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="59"/>
       <c r="D3" s="58" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E3" s="58"/>
       <c r="F3" s="28"/>
@@ -3860,27 +4071,27 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
+    <row r="5" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -3908,13 +4119,302 @@
         <v>8</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>329</v>
       </c>
+      <c r="F7" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3933,6 +4433,218 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54"/>
+      <c r="B2" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
+      <c r="B3" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -3953,43 +4665,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="55"/>
+      <c r="A1" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="56"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="60"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="57"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="59"/>
       <c r="D3" s="58" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E3" s="58"/>
       <c r="F3" s="28"/>
@@ -3997,17 +4709,17 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -4046,7 +4758,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -4064,7 +4776,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="8"/>
@@ -4100,7 +4812,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -4118,7 +4830,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -4180,11 +4892,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -4201,43 +4913,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="55"/>
+      <c r="A1" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="56"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="60"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="57"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="59"/>
       <c r="D3" s="58" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E3" s="58"/>
       <c r="F3" s="28"/>
@@ -4245,13 +4957,13 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -4303,7 +5015,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -4321,7 +5033,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -4339,7 +5051,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -4357,7 +5069,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -4375,7 +5087,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -4393,7 +5105,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -4411,7 +5123,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -4429,7 +5141,7 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -4456,7 +5168,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4472,43 +5184,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="55"/>
+      <c r="A1" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="56"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55" t="s">
-        <v>308</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="60"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="57"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="59"/>
       <c r="D3" s="58" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E3" s="58"/>
       <c r="F3" s="28"/>
@@ -4516,39 +5228,39 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="53" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-    </row>
-    <row r="6" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
+    <row r="5" spans="1:10" s="54" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+    </row>
+    <row r="6" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -4576,66 +5288,66 @@
         <v>8</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>88</v>
+        <v>326</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>89</v>
+        <v>346</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="25" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>91</v>
+        <v>327</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>88</v>
+        <v>326</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -4721,43 +5433,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="55"/>
+      <c r="A1" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="56"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="56" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="60"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="57"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="59"/>
       <c r="D3" s="58" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E3" s="58"/>
       <c r="F3" s="28"/>
@@ -4765,13 +5477,13 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -4811,12 +5523,12 @@
         <v>8</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>17</v>
@@ -4838,12 +5550,12 @@
         <v>10</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="99" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="3" t="s">
@@ -4863,12 +5575,12 @@
         <v>10</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="3" t="s">
@@ -4888,12 +5600,12 @@
         <v>10</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="3" t="s">
@@ -4913,12 +5625,12 @@
         <v>10</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="3" t="s">
@@ -4938,7 +5650,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -4960,7 +5672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
@@ -4978,43 +5690,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="55"/>
+      <c r="A1" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="56"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="60"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="57"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="59"/>
       <c r="D3" s="58" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E3" s="58"/>
       <c r="F3" s="28"/>
@@ -5022,27 +5734,27 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="53" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
+    <row r="5" spans="1:10" s="54" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -5101,6 +5813,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
@@ -5109,7 +5822,6 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A5:XFD5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5135,43 +5847,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="55"/>
+      <c r="A1" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="56"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="60"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="57"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="59"/>
       <c r="D3" s="58" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E3" s="58"/>
       <c r="F3" s="28"/>
@@ -5179,17 +5891,17 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -5216,32 +5928,32 @@
         <v>8</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5280,43 +5992,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="55"/>
+      <c r="A1" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="56"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55" t="s">
-        <v>312</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="60"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="57"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="59"/>
       <c r="D3" s="58" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E3" s="58"/>
       <c r="F3" s="28"/>
@@ -5324,17 +6036,17 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -5361,210 +6073,210 @@
         <v>8</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="G8" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H13" s="43" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -5605,44 +6317,44 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="55"/>
+        <v>89</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="56"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>318</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="A2" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="60"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="57"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="59"/>
       <c r="D3" s="58" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E3" s="58"/>
       <c r="F3" s="28"/>
@@ -5650,27 +6362,27 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="53" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
+    <row r="5" spans="1:10" s="54" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
@@ -5698,206 +6410,206 @@
         <v>8</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H13" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5937,43 +6649,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="55"/>
+      <c r="A1" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="56"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55" t="s">
-        <v>319</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="60"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="57"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="59"/>
       <c r="D3" s="58" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E3" s="58"/>
       <c r="F3" s="28"/>
@@ -5981,17 +6693,17 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -6018,84 +6730,84 @@
         <v>8</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="42" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H7" s="42" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="42" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="42" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H9" s="42" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -6136,43 +6848,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="55"/>
+      <c r="A1" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="56"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55" t="s">
-        <v>320</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="60"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="57"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="59"/>
       <c r="D3" s="58" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E3" s="58"/>
       <c r="F3" s="28"/>
@@ -6180,17 +6892,17 @@
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -6217,32 +6929,32 @@
         <v>8</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Document/7.Testing/Test_Case.xlsx
+++ b/Document/7.Testing/Test_Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="15" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,10 @@
     <sheet name="Report" sheetId="28" r:id="rId14"/>
     <sheet name="Change Password" sheetId="15" r:id="rId15"/>
     <sheet name="Update Information" sheetId="16" r:id="rId16"/>
+    <sheet name="Acceptance" sheetId="29" r:id="rId17"/>
+    <sheet name="View list of reports" sheetId="30" r:id="rId18"/>
+    <sheet name="Delete account" sheetId="31" r:id="rId19"/>
+    <sheet name="Delete accommodation" sheetId="32" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="393">
   <si>
     <t>Test case id</t>
   </si>
@@ -1619,6 +1623,33 @@
 2) Type the link: 
 3) Click on "Dịch vụ trung gian" option.
 4) Click on "Gửi" button</t>
+  </si>
+  <si>
+    <t>Module Name: Update information</t>
+  </si>
+  <si>
+    <t>Module Name: Change password</t>
+  </si>
+  <si>
+    <t>Module Name: Report</t>
+  </si>
+  <si>
+    <t>Module Name: Acceptance</t>
+  </si>
+  <si>
+    <t>Module Name: View list of reports</t>
+  </si>
+  <si>
+    <t>Module Name: Delete account</t>
+  </si>
+  <si>
+    <t>Module Name: Delete accommodation</t>
+  </si>
+  <si>
+    <t>TC_A01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) </t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1794,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1832,12 +1863,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2027,6 +2103,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2311,7 +2415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -3844,14 +3948,14 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="34.140625" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
@@ -4436,8 +4540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4459,39 +4563,39 @@
         <v>245</v>
       </c>
       <c r="C1" s="57"/>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="28"/>
+      <c r="F1" s="56"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
       <c r="B2" s="56" t="s">
-        <v>323</v>
+        <v>386</v>
       </c>
       <c r="C2" s="56"/>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="28"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
       <c r="B3" s="59" t="s">
         <v>247</v>
       </c>
       <c r="C3" s="59"/>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="28"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
@@ -4503,6 +4607,7 @@
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -4630,15 +4735,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4649,7 +4754,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD4"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4683,7 +4788,7 @@
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
       <c r="B2" s="56" t="s">
-        <v>246</v>
+        <v>385</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="60" t="s">
@@ -4894,10 +4999,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4909,10 +5014,11 @@
     <col min="5" max="5" width="31.7109375" style="12" customWidth="1"/>
     <col min="6" max="6" width="27.5703125" style="12" customWidth="1"/>
     <col min="7" max="7" width="22.140625" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="12"/>
+    <col min="8" max="8" width="12.140625" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>89</v>
       </c>
@@ -4928,10 +5034,10 @@
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
       <c r="B2" s="56" t="s">
-        <v>246</v>
+        <v>384</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="60" t="s">
@@ -4942,7 +5048,7 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
       <c r="B3" s="59" t="s">
         <v>247</v>
@@ -4956,7 +5062,7 @@
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
       <c r="B4" s="55" t="s">
         <v>94</v>
@@ -4967,7 +5073,7 @@
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -4977,7 +5083,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
       </c>
@@ -5002,8 +5108,11 @@
       <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="I6" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -5020,8 +5129,9 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -5038,8 +5148,9 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -5056,8 +5167,9 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -5074,8 +5186,9 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="I10" s="41"/>
+    </row>
+    <row r="11" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -5092,8 +5205,9 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="I11" s="41"/>
+    </row>
+    <row r="12" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -5110,8 +5224,9 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="I12" s="41"/>
+    </row>
+    <row r="13" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -5128,8 +5243,9 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="I13" s="41"/>
+    </row>
+    <row r="14" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -5146,6 +5262,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
+      <c r="I14" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5163,12 +5280,408 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54"/>
+      <c r="B2" s="56" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
+      <c r="B3" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" s="77" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>391</v>
+      </c>
+      <c r="E7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54"/>
+      <c r="B2" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
+      <c r="B3" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" s="77" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54"/>
+      <c r="B2" s="56" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
+      <c r="B3" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" s="77" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5191,39 +5704,37 @@
         <v>245</v>
       </c>
       <c r="C1" s="57"/>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="28"/>
+      <c r="F1" s="73"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="71" t="s">
         <v>303</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
@@ -5396,19 +5907,145 @@
       <c r="H14" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="6">
     <mergeCell ref="A5:XFD6"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54"/>
+      <c r="B2" s="56" t="s">
+        <v>390</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
+      <c r="B3" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" s="77" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Document/7.Testing/Test_Case.xlsx
+++ b/Document/7.Testing/Test_Case.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="15" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="Delete account" sheetId="31" r:id="rId19"/>
     <sheet name="Delete accommodation" sheetId="32" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="397">
   <si>
     <t>Test case id</t>
   </si>
@@ -1651,11 +1651,23 @@
   <si>
     <t xml:space="preserve">1) </t>
   </si>
+  <si>
+    <t>Test Designed date: 23/09/2018</t>
+  </si>
+  <si>
+    <t>Test Execution date:  23/09/2018</t>
+  </si>
+  <si>
+    <t>Test Designed date: 24/09/2018</t>
+  </si>
+  <si>
+    <t>Test Execution date:  24/09/2018</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2062,6 +2074,28 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2089,6 +2123,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2103,34 +2143,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2415,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2432,57 +2444,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="56"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="60"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="E2" s="68"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="58"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="66" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3" s="66"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -2951,8 +2963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:XFD4"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2967,61 +2979,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="56"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="64" t="s">
         <v>316</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="60"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -3477,7 +3489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3495,61 +3507,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="56"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="64" t="s">
         <v>317</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="60"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -3947,7 +3959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3963,57 +3975,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="56"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
+      <c r="A2" s="62"/>
       <c r="B2" s="52" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="60"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -4114,7 +4126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -4131,71 +4143,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="56"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="64" t="s">
         <v>323</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="60"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
+    <row r="5" spans="1:10" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -4540,7 +4552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
@@ -4556,72 +4568,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="56" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="56"/>
+      <c r="F1" s="64"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="64" t="s">
         <v>386</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="58" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="58"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
+    <row r="5" spans="1:10" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -4770,61 +4782,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="56"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="64" t="s">
         <v>385</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="60"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -5019,57 +5031,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="56"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="64" t="s">
         <v>384</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="60"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -5284,7 +5296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -5301,57 +5313,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="56"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="64" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="60"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -5365,32 +5377,32 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:9" s="77" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74" t="s">
+    <row r="6" spans="1:9" s="61" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="75" t="s">
+      <c r="G6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5439,57 +5451,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="56"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="64" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="60"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -5503,32 +5515,32 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:9" s="77" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74" t="s">
+    <row r="6" spans="1:9" s="61" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="75" t="s">
+      <c r="G6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5568,57 +5580,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="56"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="64" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="60"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -5632,32 +5644,32 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:9" s="77" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74" t="s">
+    <row r="6" spans="1:9" s="61" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="75" t="s">
+      <c r="G6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5681,7 +5693,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5697,81 +5709,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="68" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="73"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
+      <c r="A2" s="62"/>
       <c r="B2" s="71" t="s">
         <v>303</v>
       </c>
       <c r="C2" s="71"/>
       <c r="D2" s="71"/>
-      <c r="E2" s="69" t="s">
-        <v>91</v>
+      <c r="E2" s="55" t="s">
+        <v>393</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="72" t="s">
         <v>247</v>
       </c>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
-      <c r="E3" s="70" t="s">
-        <v>93</v>
+      <c r="E3" s="56" t="s">
+        <v>394</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="54" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-    </row>
-    <row r="6" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
+    <row r="5" spans="1:10" s="62" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+    </row>
+    <row r="6" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -5925,7 +5937,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5941,57 +5953,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="56"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="64" t="s">
         <v>390</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="60"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -6005,32 +6017,32 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:9" s="77" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74" t="s">
+    <row r="6" spans="1:9" s="61" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="75" t="s">
+      <c r="G6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6054,7 +6066,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6070,57 +6082,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="56"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="64" t="s">
         <v>304</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="60"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="68" t="s">
+        <v>395</v>
+      </c>
+      <c r="E2" s="68"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="58"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="E3" s="66"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -6327,71 +6339,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="56"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="64" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="60"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="54" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
+    <row r="5" spans="1:10" s="62" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -6468,7 +6480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
@@ -6484,61 +6496,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="56"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="64" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="60"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -6629,61 +6641,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="56"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="60"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -6956,70 +6968,70 @@
       <c r="A1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="56"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="64" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="60"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="54" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
+    <row r="5" spans="1:10" s="62" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
     </row>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
@@ -7286,61 +7298,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="56"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="64" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="60"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -7469,7 +7481,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7485,61 +7497,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="56"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="64" t="s">
         <v>315</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="60"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="58" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>

--- a/Document/7.Testing/Test_Case.xlsx
+++ b/Document/7.Testing/Test_Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="398">
   <si>
     <t>Test case id</t>
   </si>
@@ -1071,9 +1071,6 @@
     <t>TC_AR13</t>
   </si>
   <si>
-    <t>Add a room without with more 5 images</t>
-  </si>
-  <si>
     <t>1) "Tên phòng": 'Phòng VIP'
 2) "Mô tả": ' Phòng chât lượng cao, dùng làm homestay '
 3) "Loại": "Phòng đơn'
@@ -1662,6 +1659,12 @@
   </si>
   <si>
     <t>Test Execution date:  24/09/2018</t>
+  </si>
+  <si>
+    <t>Add a room with more 5 images</t>
+  </si>
+  <si>
+    <t>Test Execution date:   24/09/2018</t>
   </si>
 </sst>
 </file>
@@ -2427,7 +2430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
@@ -2448,7 +2451,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="64" t="s">
@@ -2462,11 +2465,11 @@
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="64" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="68" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="28"/>
@@ -2476,11 +2479,11 @@
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="66" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E3" s="66"/>
       <c r="F3" s="28"/>
@@ -2554,10 +2557,10 @@
         <v>41</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>11</v>
@@ -2571,7 +2574,7 @@
         <v>108</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>33</v>
@@ -2586,7 +2589,7 @@
         <v>39</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>11</v>
@@ -2789,7 +2792,7 @@
         <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>11</v>
@@ -2919,7 +2922,7 @@
         <v>120</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>33</v>
@@ -2934,7 +2937,7 @@
         <v>39</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>11</v>
@@ -2963,8 +2966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2983,7 +2986,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="64" t="s">
@@ -2997,7 +3000,7 @@
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="68" t="s">
@@ -3011,7 +3014,7 @@
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="66" t="s">
@@ -3254,10 +3257,10 @@
         <v>183</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H13" s="43" t="s">
         <v>10</v>
@@ -3283,10 +3286,10 @@
         <v>183</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H14" s="48" t="s">
         <v>10</v>
@@ -3312,10 +3315,10 @@
         <v>183</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H15" s="48" t="s">
         <v>10</v>
@@ -3344,7 +3347,7 @@
         <v>217</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H16" s="48" t="s">
         <v>11</v>
@@ -3402,7 +3405,7 @@
         <v>228</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H18" s="48" t="s">
         <v>11</v>
@@ -3416,22 +3419,22 @@
         <v>229</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>230</v>
+        <v>396</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>148</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>183</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H19" s="48" t="s">
         <v>10</v>
@@ -3442,25 +3445,25 @@
     </row>
     <row r="20" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" s="42" t="s">
         <v>259</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>260</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>148</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>183</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H20" s="48" t="s">
         <v>11</v>
@@ -3511,7 +3514,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="64" t="s">
@@ -3525,7 +3528,7 @@
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="68" t="s">
@@ -3539,7 +3542,7 @@
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="66" t="s">
@@ -3593,25 +3596,25 @@
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>179</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>250</v>
-      </c>
       <c r="F7" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>286</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>11</v>
@@ -3622,25 +3625,25 @@
     </row>
     <row r="8" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>179</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>253</v>
-      </c>
       <c r="G8" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>10</v>
@@ -3651,19 +3654,19 @@
     </row>
     <row r="9" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="42" t="s">
         <v>256</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>257</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>179</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>189</v>
@@ -3680,10 +3683,10 @@
     </row>
     <row r="10" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>179</v>
@@ -3692,13 +3695,13 @@
         <v>205</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>10</v>
@@ -3709,10 +3712,10 @@
     </row>
     <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="42" t="s">
         <v>270</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>271</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>179</v>
@@ -3721,13 +3724,13 @@
         <v>209</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>10</v>
@@ -3738,10 +3741,10 @@
     </row>
     <row r="12" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" s="42" t="s">
         <v>272</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>273</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>179</v>
@@ -3750,13 +3753,13 @@
         <v>216</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>288</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>11</v>
@@ -3767,10 +3770,10 @@
     </row>
     <row r="13" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>179</v>
@@ -3779,13 +3782,13 @@
         <v>227</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F13" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>290</v>
       </c>
       <c r="H13" s="43" t="s">
         <v>11</v>
@@ -3796,10 +3799,10 @@
     </row>
     <row r="14" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>179</v>
@@ -3808,7 +3811,7 @@
         <v>193</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>194</v>
@@ -3825,10 +3828,10 @@
     </row>
     <row r="15" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>179</v>
@@ -3837,7 +3840,7 @@
         <v>197</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>198</v>
@@ -3854,10 +3857,10 @@
     </row>
     <row r="16" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>179</v>
@@ -3866,7 +3869,7 @@
         <v>202</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>203</v>
@@ -3883,10 +3886,10 @@
     </row>
     <row r="17" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>179</v>
@@ -3895,13 +3898,13 @@
         <v>224</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H17" s="43" t="s">
         <v>11</v>
@@ -3912,25 +3915,25 @@
     </row>
     <row r="18" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B18" s="42" t="s">
         <v>292</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>293</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>179</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>183</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H18" s="43" t="s">
         <v>11</v>
@@ -3979,7 +3982,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="64" t="s">
         <v>90</v>
@@ -3992,7 +3995,7 @@
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C2" s="68" t="s">
         <v>91</v>
@@ -4005,7 +4008,7 @@
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>93</v>
@@ -4057,7 +4060,7 @@
     </row>
     <row r="7" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B7" s="42" t="s">
         <v>171</v>
@@ -4067,13 +4070,13 @@
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F7" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="G7" s="42" t="s">
         <v>320</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>321</v>
       </c>
       <c r="H7" s="42" t="s">
         <v>11</v>
@@ -4084,7 +4087,7 @@
     </row>
     <row r="8" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>176</v>
@@ -4094,13 +4097,13 @@
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H8" s="42" t="s">
         <v>10</v>
@@ -4147,7 +4150,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="64" t="s">
@@ -4161,7 +4164,7 @@
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="64" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="68" t="s">
@@ -4175,7 +4178,7 @@
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="66" t="s">
@@ -4240,22 +4243,22 @@
     </row>
     <row r="7" spans="1:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="D7" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="3"/>
@@ -4263,25 +4266,25 @@
     </row>
     <row r="8" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>334</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>10</v>
@@ -4292,25 +4295,25 @@
     </row>
     <row r="9" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>338</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>10</v>
@@ -4321,22 +4324,22 @@
     </row>
     <row r="10" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -4344,22 +4347,22 @@
     </row>
     <row r="11" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -4367,22 +4370,22 @@
     </row>
     <row r="12" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="3"/>
@@ -4390,19 +4393,19 @@
     </row>
     <row r="13" spans="1:10" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>39</v>
@@ -4413,19 +4416,19 @@
     </row>
     <row r="14" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>51</v>
@@ -4442,19 +4445,19 @@
     </row>
     <row r="15" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>51</v>
@@ -4465,22 +4468,22 @@
     </row>
     <row r="16" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
@@ -4488,22 +4491,22 @@
     </row>
     <row r="17" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>368</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
@@ -4511,22 +4514,22 @@
     </row>
     <row r="18" spans="1:9" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
@@ -4572,7 +4575,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -4586,7 +4589,7 @@
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
@@ -4600,7 +4603,7 @@
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="67"/>
@@ -4666,23 +4669,23 @@
     </row>
     <row r="7" spans="1:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>11</v>
@@ -4693,23 +4696,23 @@
     </row>
     <row r="8" spans="1:10" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>11</v>
@@ -4720,23 +4723,23 @@
     </row>
     <row r="9" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>11</v>
@@ -4786,7 +4789,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="64" t="s">
@@ -4800,7 +4803,7 @@
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="68" t="s">
@@ -4814,7 +4817,7 @@
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="66" t="s">
@@ -5035,7 +5038,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="64" t="s">
@@ -5049,7 +5052,7 @@
     <row r="2" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="68" t="s">
@@ -5063,7 +5066,7 @@
     <row r="3" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="66" t="s">
@@ -5317,7 +5320,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="64" t="s">
@@ -5331,7 +5334,7 @@
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="64" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="68" t="s">
@@ -5345,7 +5348,7 @@
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="66" t="s">
@@ -5408,10 +5411,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E7" t="s">
         <v>391</v>
-      </c>
-      <c r="E7" t="s">
-        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -5455,7 +5458,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="64" t="s">
@@ -5469,7 +5472,7 @@
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="64" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="68" t="s">
@@ -5483,7 +5486,7 @@
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="66" t="s">
@@ -5584,7 +5587,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="64" t="s">
@@ -5598,7 +5601,7 @@
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="64" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="68" t="s">
@@ -5612,7 +5615,7 @@
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="66" t="s">
@@ -5713,7 +5716,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -5727,12 +5730,12 @@
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="71" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C2" s="71"/>
       <c r="D2" s="71"/>
       <c r="E2" s="55" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
@@ -5740,12 +5743,12 @@
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
       <c r="E3" s="56" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -5816,10 +5819,10 @@
     </row>
     <row r="8" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>33</v>
@@ -5829,10 +5832,10 @@
         <v>86</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>10</v>
@@ -5843,23 +5846,23 @@
     </row>
     <row r="9" spans="1:10" s="25" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="s">
         <v>88</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>11</v>
@@ -5957,7 +5960,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="64" t="s">
@@ -5971,7 +5974,7 @@
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="64" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="68" t="s">
@@ -5985,7 +5988,7 @@
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="66" t="s">
@@ -6086,7 +6089,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="64" t="s">
@@ -6100,11 +6103,11 @@
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="68" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="28"/>
@@ -6114,11 +6117,11 @@
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="66" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E3" s="66"/>
       <c r="F3" s="28"/>
@@ -6177,7 +6180,7 @@
     </row>
     <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>17</v>
@@ -6204,7 +6207,7 @@
     </row>
     <row r="9" spans="1:9" ht="99" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="3" t="s">
@@ -6229,7 +6232,7 @@
     </row>
     <row r="10" spans="1:9" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="3" t="s">
@@ -6254,7 +6257,7 @@
     </row>
     <row r="11" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="3" t="s">
@@ -6321,8 +6324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6343,7 +6346,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="64" t="s">
@@ -6357,11 +6360,11 @@
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="64" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="68" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="28"/>
@@ -6371,11 +6374,11 @@
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="66" t="s">
-        <v>93</v>
+        <v>397</v>
       </c>
       <c r="E3" s="66"/>
       <c r="F3" s="28"/>
@@ -6480,7 +6483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
@@ -6500,7 +6503,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="64" t="s">
@@ -6514,7 +6517,7 @@
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="68" t="s">
@@ -6528,7 +6531,7 @@
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="66" t="s">
@@ -6593,10 +6596,10 @@
         <v>126</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>10</v>
@@ -6645,7 +6648,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="64" t="s">
@@ -6659,7 +6662,7 @@
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="64" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="68" t="s">
@@ -6673,7 +6676,7 @@
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="66" t="s">
@@ -6742,10 +6745,10 @@
         <v>125</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>11</v>
@@ -6916,10 +6919,10 @@
         <v>162</v>
       </c>
       <c r="F13" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>302</v>
       </c>
       <c r="H13" s="43" t="s">
         <v>11</v>
@@ -6949,7 +6952,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6969,7 +6972,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="64" t="s">
@@ -6985,7 +6988,7 @@
         <v>89</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="68" t="s">
@@ -6999,7 +7002,7 @@
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="66" t="s">
@@ -7079,7 +7082,7 @@
         <v>168</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -7133,10 +7136,10 @@
         <v>162</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>302</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>11</v>
@@ -7150,7 +7153,7 @@
         <v>164</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>148</v>
@@ -7179,7 +7182,7 @@
         <v>165</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>148</v>
@@ -7208,7 +7211,7 @@
         <v>166</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>148</v>
@@ -7237,7 +7240,7 @@
         <v>167</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>148</v>
@@ -7302,7 +7305,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="64" t="s">
@@ -7316,7 +7319,7 @@
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="64" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="68" t="s">
@@ -7330,7 +7333,7 @@
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="66" t="s">
@@ -7397,10 +7400,10 @@
         <v>174</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H7" s="42" t="s">
         <v>11</v>
@@ -7424,7 +7427,7 @@
         <v>177</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="19"/>
@@ -7447,10 +7450,10 @@
         <v>178</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H9" s="42" t="s">
         <v>10</v>
@@ -7501,7 +7504,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="64" t="s">
@@ -7515,7 +7518,7 @@
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="64" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="68" t="s">
@@ -7529,7 +7532,7 @@
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="66" t="s">
@@ -7594,10 +7597,10 @@
         <v>127</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>10</v>

--- a/Document/7.Testing/Test_Case.xlsx
+++ b/Document/7.Testing/Test_Case.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="13" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="418">
   <si>
     <t>Test case id</t>
   </si>
@@ -209,9 +209,6 @@
 6) Click on "Đăng ký"</t>
   </si>
   <si>
-    <t>The screen displays "Bạn chưa nhập tên người dùng" message box.</t>
-  </si>
-  <si>
     <t>Close</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>Register with e-mail account which contains special characters.</t>
   </si>
   <si>
-    <t>The screen displays "E-mail không được chứa ký tự đặc biệt" message box.</t>
-  </si>
-  <si>
     <t>Register without e-mail account.</t>
   </si>
   <si>
@@ -302,9 +296,6 @@
 4) "Xác nhận mật khẩu": '123&lt;&gt;?abc+'</t>
   </si>
   <si>
-    <t>The screen displays "Mật khẩu không hợp lệ" message box.</t>
-  </si>
-  <si>
     <t>Register with password and confirm password are not match.</t>
   </si>
   <si>
@@ -419,9 +410,6 @@
   </si>
   <si>
     <t>Come back to home page</t>
-  </si>
-  <si>
-    <t>1) Click on "Trang chủ" button</t>
   </si>
   <si>
     <t>Blue Team</t>
@@ -1071,6 +1059,9 @@
     <t>TC_AR13</t>
   </si>
   <si>
+    <t>Add a room without with more 5 images</t>
+  </si>
+  <si>
     <t>1) "Tên phòng": 'Phòng VIP'
 2) "Mô tả": ' Phòng chât lượng cao, dùng làm homestay '
 3) "Loại": "Phòng đơn'
@@ -1093,9 +1084,6 @@
     <t>The browser to view home page of RS.</t>
   </si>
   <si>
-    <t>The browser to view trang chủ site of RS.</t>
-  </si>
-  <si>
     <t>The browser to view  detail of accommodation which was selected.</t>
   </si>
   <si>
@@ -1314,12 +1302,6 @@
     <t>Browser to "View list of zone" page.</t>
   </si>
   <si>
-    <t>The screen display "Thông tin khu chỗ ở đã được lưu thành công" message box. browser switch to view list of zone page and view information saved.</t>
-  </si>
-  <si>
-    <t>browser switch to view list of zone page and view information saved.</t>
-  </si>
-  <si>
     <t>The screen display "Tên khu không được vượt quá 50 kí tự" message box. The browser switch view list of zone page and display zone information which was saved with 50-character zone name.</t>
   </si>
   <si>
@@ -1339,9 +1321,6 @@
   </si>
   <si>
     <t>Module Name: Add zone</t>
-  </si>
-  <si>
-    <t>The screen display "Thông tin dãy trọ đã được sửa" message box. browser switch to "View list of zone" page and view information saved.</t>
   </si>
   <si>
     <t>The browser display 
@@ -1417,9 +1396,6 @@
 5) Click on "Gởi yêu cầu" button</t>
   </si>
   <si>
-    <t>The screen displays "Yêu cầu của bạ đã được gởi đi. Trong vòng 48h tới nếu không được xác nhận, yêu cầu nỹ sẽ bị hủy." message box and the browser to view home page of RS.</t>
-  </si>
-  <si>
     <t>TC_BR02</t>
   </si>
   <si>
@@ -1646,9 +1622,6 @@
     <t>TC_A01</t>
   </si>
   <si>
-    <t xml:space="preserve">1) </t>
-  </si>
-  <si>
     <t>Test Designed date: 23/09/2018</t>
   </si>
   <si>
@@ -1661,16 +1634,108 @@
     <t>Test Execution date:  24/09/2018</t>
   </si>
   <si>
-    <t>Add a room with more 5 images</t>
-  </si>
-  <si>
-    <t>Test Execution date:   24/09/2018</t>
+    <t>TC_BR01 and 
+TC_VLOR01</t>
+  </si>
+  <si>
+    <t>View exactly information</t>
+  </si>
+  <si>
+    <t>"Đồng ý" button</t>
+  </si>
+  <si>
+    <t>TC_A02</t>
+  </si>
+  <si>
+    <t>TC_A03</t>
+  </si>
+  <si>
+    <t>"Từ chối" button</t>
+  </si>
+  <si>
+    <t>TC_A04</t>
+  </si>
+  <si>
+    <t>Expired contract</t>
+  </si>
+  <si>
+    <t>The screen displays "Vui lòng kiểm tra lại tên bạn".</t>
+  </si>
+  <si>
+    <t>The screen displays "E-mail không hợp lệ".</t>
+  </si>
+  <si>
+    <t>The screen displays "Mật khẩu phải có trên 5 kí tự và dưới 20 kí tự".</t>
+  </si>
+  <si>
+    <t>The screen display "Bạn vừa thêm khu thành công" message box. browser switch to view list of zone page and view information saved.</t>
+  </si>
+  <si>
+    <t>Browser switch to view list of zone page and view information saved.</t>
+  </si>
+  <si>
+    <t>Fixed
+Close</t>
+  </si>
+  <si>
+    <t>TC_A05</t>
+  </si>
+  <si>
+    <t>Click on button in "Chi tiết" columm</t>
+  </si>
+  <si>
+    <t>Browser to view excatly information about name, e-mail, phone number and message of renter</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>"Giá": '1000000'</t>
+  </si>
+  <si>
+    <t>1) Enter the price for that contract
+2) Click on "Đồng ý" button</t>
+  </si>
+  <si>
+    <t>1) Click on "Từ chối" 
+button</t>
+  </si>
+  <si>
+    <t>Screen displays "Bạn đã cho thuê chỗ ở thành công". The status of that accommodation is set at "Đã thuê". Database save that contract information with the price landlord entered</t>
+  </si>
+  <si>
+    <t>Screen displays "Bạn đã hủy hợp đồng này"</t>
+  </si>
+  <si>
+    <t>Haven't booking</t>
+  </si>
+  <si>
+    <t>TC_VLOR01</t>
+  </si>
+  <si>
+    <t>If a booking didn't accept after 48 hours, it will be automatically cancel by system.</t>
+  </si>
+  <si>
+    <t>Browser to view "Chưa có ai đặt phòng"</t>
+  </si>
+  <si>
+    <t>1) Click on Home button</t>
+  </si>
+  <si>
+    <t>The screen display "Bạn vừa cập nhật thành công" message box. Browser switch to "View list of zone" page and view information saved.</t>
+  </si>
+  <si>
+    <t>The browser display 
+view list of zone page without no information  change.</t>
+  </si>
+  <si>
+    <t>The screen displays "Yêu cầu của bạn đã được gởi đi. Trong vòng 48h tới nếu không được xác nhận, yêu cầu nỹ sẽ bị hủy." message box and the browser to view home page of RS.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1809,7 +1874,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1923,12 +1988,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2099,6 +2177,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2146,6 +2236,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2431,7 +2530,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2447,57 +2546,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="64"/>
+      <c r="A1" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="68"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="64" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68" t="s">
-        <v>392</v>
-      </c>
-      <c r="E2" s="68"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="72" t="s">
+        <v>383</v>
+      </c>
+      <c r="E2" s="72"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="66" t="s">
-        <v>393</v>
-      </c>
-      <c r="E3" s="66"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="70" t="s">
+        <v>384</v>
+      </c>
+      <c r="E3" s="70"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -2542,7 +2641,7 @@
     </row>
     <row r="8" spans="1:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>40</v>
@@ -2557,24 +2656,24 @@
         <v>41</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>37</v>
+      <c r="I8" s="7" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>33</v>
@@ -2586,21 +2685,21 @@
         <v>44</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>39</v>
+        <v>395</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>37</v>
+      <c r="I9" s="42" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>42</v>
@@ -2615,329 +2714,329 @@
         <v>45</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>46</v>
+        <v>395</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>46</v>
+        <v>395</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>51</v>
+        <v>396</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>51</v>
+        <v>396</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>54</v>
+        <v>396</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>54</v>
+        <v>396</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>51</v>
+        <v>396</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>51</v>
+        <v>396</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>60</v>
+        <v>397</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>60</v>
+        <v>397</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>60</v>
+        <v>397</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>60</v>
+        <v>397</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>39</v>
+        <v>395</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>11</v>
@@ -2966,8 +3065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2982,61 +3081,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="64"/>
+      <c r="A1" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="68"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="68"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="72"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="66"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="70"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -3068,286 +3167,286 @@
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>37</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>196</v>
-      </c>
       <c r="C10" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H13" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H14" s="48" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H15" s="48" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>217</v>
-      </c>
       <c r="G16" s="46" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H16" s="48" t="s">
         <v>11</v>
@@ -3358,25 +3457,25 @@
     </row>
     <row r="17" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H17" s="48" t="s">
         <v>11</v>
@@ -3387,89 +3486,89 @@
     </row>
     <row r="18" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>228</v>
-      </c>
       <c r="G18" s="46" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H18" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>37</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>396</v>
+        <v>226</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H19" s="48" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B20" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>262</v>
-      </c>
       <c r="G20" s="46" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H20" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I20" s="49" t="s">
-        <v>37</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -3492,8 +3591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3510,61 +3609,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="64"/>
+      <c r="A1" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="68"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="64" t="s">
-        <v>316</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="68"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="72"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="66"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="70"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -3596,25 +3695,25 @@
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>11</v>
@@ -3625,141 +3724,141 @@
     </row>
     <row r="8" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>11</v>
@@ -3770,25 +3869,25 @@
     </row>
     <row r="13" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H13" s="43" t="s">
         <v>11</v>
@@ -3799,147 +3898,147 @@
     </row>
     <row r="14" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H14" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H16" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H17" s="43" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="44" t="s">
-        <v>37</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>183</v>
-      </c>
       <c r="F18" s="8" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H18" s="43" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="44" t="s">
-        <v>37</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -3963,7 +4062,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3978,57 +4077,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>89</v>
+      <c r="A1" s="66" t="s">
+        <v>85</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="64"/>
+        <v>240</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="68"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
+      <c r="A2" s="66"/>
       <c r="B2" s="52" t="s">
-        <v>321</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="68"/>
+        <v>314</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="72"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="66"/>
+        <v>242</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="70"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -4060,23 +4159,23 @@
     </row>
     <row r="7" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="42" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H7" s="42" t="s">
         <v>11</v>
@@ -4087,29 +4186,29 @@
     </row>
     <row r="8" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="47" t="s">
         <v>176</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>180</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="42" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H8" s="42" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4129,8 +4228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4146,71 +4245,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="64"/>
+      <c r="A1" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="68"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="64" t="s">
-        <v>322</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="68"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="72"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="66"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="70"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
+    <row r="5" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -4243,22 +4342,22 @@
     </row>
     <row r="7" spans="1:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>329</v>
+        <v>417</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="3"/>
@@ -4266,80 +4365,80 @@
     </row>
     <row r="8" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -4347,22 +4446,22 @@
     </row>
     <row r="11" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>349</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -4370,22 +4469,22 @@
     </row>
     <row r="12" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="3"/>
@@ -4393,19 +4492,19 @@
     </row>
     <row r="13" spans="1:10" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>39</v>
@@ -4416,51 +4515,51 @@
     </row>
     <row r="14" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -4468,22 +4567,22 @@
     </row>
     <row r="16" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
@@ -4491,22 +4590,22 @@
     </row>
     <row r="17" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
@@ -4514,22 +4613,22 @@
     </row>
     <row r="18" spans="1:9" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
@@ -4555,8 +4654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4571,72 +4670,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="64"/>
+      <c r="A1" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="68"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="64" t="s">
-        <v>385</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="68"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="72"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="66"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="70"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
+    <row r="5" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -4669,23 +4768,23 @@
     </row>
     <row r="7" spans="1:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>11</v>
@@ -4696,23 +4795,23 @@
     </row>
     <row r="8" spans="1:10" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>11</v>
@@ -4723,23 +4822,23 @@
     </row>
     <row r="9" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>11</v>
@@ -4785,61 +4884,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="64"/>
+      <c r="A1" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="68"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="64" t="s">
-        <v>384</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="68"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="72"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="66"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="70"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -4878,7 +4977,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -4896,7 +4995,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="8"/>
@@ -4932,7 +5031,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -4950,7 +5049,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -5017,7 +5116,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5034,57 +5133,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="64"/>
+      <c r="A1" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="68"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="64" t="s">
-        <v>383</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="68"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="72"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="66"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="70"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -5139,7 +5238,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -5158,7 +5257,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -5177,7 +5276,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -5196,7 +5295,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -5215,7 +5314,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -5234,7 +5333,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -5253,7 +5352,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -5272,7 +5371,7 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -5297,76 +5396,76 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="64"/>
+      <c r="A1" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="68"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="64" t="s">
-        <v>386</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="68"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="72"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="66"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="70"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -5380,43 +5479,190 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:9" s="61" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="64" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" s="65" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="83" t="s">
+        <v>382</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>388</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>404</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>402</v>
+      </c>
+      <c r="F7" s="84" t="s">
+        <v>403</v>
+      </c>
+      <c r="G7" s="84" t="s">
+        <v>403</v>
+      </c>
+      <c r="H7" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="84" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="65" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="82" t="s">
         <v>390</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B8" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D8" s="82" t="s">
+        <v>405</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="65" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="82" t="s">
         <v>391</v>
       </c>
-    </row>
+      <c r="B9" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>404</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="65" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="82" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>394</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>404</v>
+      </c>
+      <c r="E10" s="82" t="s">
+        <v>404</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="H10" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="65" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="82" t="s">
+        <v>401</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>410</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>411</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>404</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="H11" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:A4"/>
@@ -5437,8 +5683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5454,57 +5700,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="64"/>
+      <c r="A1" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="68"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="64" t="s">
-        <v>387</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="68"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="72"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="66"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="70"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -5567,7 +5813,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:XFD6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5583,57 +5829,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="64"/>
+      <c r="A1" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="68"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="64" t="s">
-        <v>388</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="68"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="72"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="66"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="70"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -5695,8 +5941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5712,81 +5958,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="A1" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="54" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F1" s="57"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="71" t="s">
-        <v>302</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="55" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="72" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
       <c r="E3" s="56" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="62" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-    </row>
-    <row r="6" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
+    <row r="5" spans="1:10" s="66" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+    </row>
+    <row r="6" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -5819,56 +6065,56 @@
     </row>
     <row r="8" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="25" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="s">
-        <v>88</v>
+        <v>414</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>37</v>
+      <c r="I9" s="42" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5956,57 +6202,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="64"/>
+      <c r="A1" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="68"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="64" t="s">
-        <v>389</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="68"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="72"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="66"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="70"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -6068,7 +6314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
@@ -6085,57 +6331,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="64"/>
+      <c r="A1" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="68"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="64" t="s">
-        <v>303</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68" t="s">
-        <v>394</v>
-      </c>
-      <c r="E2" s="68"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="72" t="s">
+        <v>385</v>
+      </c>
+      <c r="E2" s="72"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="66" t="s">
-        <v>395</v>
-      </c>
-      <c r="E3" s="66"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="70" t="s">
+        <v>386</v>
+      </c>
+      <c r="E3" s="70"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -6180,7 +6426,7 @@
     </row>
     <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>17</v>
@@ -6202,12 +6448,12 @@
         <v>10</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="99" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="3" t="s">
@@ -6227,12 +6473,12 @@
         <v>10</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="3" t="s">
@@ -6252,12 +6498,12 @@
         <v>10</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="3" t="s">
@@ -6277,12 +6523,12 @@
         <v>10</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="82.5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="99" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="3" t="s">
@@ -6302,7 +6548,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -6324,8 +6570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6342,71 +6588,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="64"/>
+      <c r="A1" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="68"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="64" t="s">
-        <v>304</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68" t="s">
-        <v>394</v>
-      </c>
-      <c r="E2" s="68"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="72"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="66" t="s">
-        <v>397</v>
-      </c>
-      <c r="E3" s="66"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="70"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="62" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
+    <row r="5" spans="1:10" s="66" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -6499,61 +6745,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="64"/>
+      <c r="A1" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="68"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="64" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="68"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="72"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="66"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="70"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -6585,27 +6831,27 @@
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -6628,8 +6874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:XFD4"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6644,61 +6890,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="64"/>
+      <c r="A1" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="68"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="64" t="s">
-        <v>306</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="68"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="72"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="66"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="70"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -6730,199 +6976,199 @@
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>298</v>
+        <v>398</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>299</v>
+        <v>399</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>37</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B10" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="G10" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="G11" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B12" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="G12" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H13" s="43" t="s">
         <v>11</v>
@@ -6951,8 +7197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6969,72 +7215,72 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="64"/>
+        <v>85</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="68"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>312</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="68"/>
+      <c r="A2" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="72"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="66"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="70"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="62" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
+    <row r="5" spans="1:10" s="66" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
     </row>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
@@ -7067,79 +7313,83 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+        <v>415</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="I7" s="41" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>11</v>
@@ -7150,118 +7400,118 @@
     </row>
     <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="F10" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="G12" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="G13" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H13" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -7284,8 +7534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7301,61 +7551,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="64"/>
+      <c r="A1" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="68"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="64" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="68"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="72"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="66"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="70"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -7387,23 +7637,23 @@
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="42" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H7" s="42" t="s">
         <v>11</v>
@@ -7414,52 +7664,56 @@
     </row>
     <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="42" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>309</v>
-      </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="19"/>
+        <v>302</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="I8" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="42" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H9" s="42" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -7500,61 +7754,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="64"/>
+      <c r="A1" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="68"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="64" t="s">
-        <v>314</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="68"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="72"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="66"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="70"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -7586,27 +7840,27 @@
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Document/7.Testing/Test_Case.xlsx
+++ b/Document/7.Testing/Test_Case.xlsx
@@ -4,29 +4,30 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="13" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="3" r:id="rId1"/>
-    <sheet name="View accomodation" sheetId="10" r:id="rId2"/>
+    <sheet name="Update Information" sheetId="16" r:id="rId2"/>
     <sheet name="Login" sheetId="12" r:id="rId3"/>
     <sheet name="Logout" sheetId="11" r:id="rId4"/>
-    <sheet name="View list of zone" sheetId="26" r:id="rId5"/>
-    <sheet name="Add zone" sheetId="20" r:id="rId6"/>
-    <sheet name="Update zone" sheetId="21" r:id="rId7"/>
-    <sheet name="Delete zone" sheetId="22" r:id="rId8"/>
-    <sheet name="View list of room" sheetId="27" r:id="rId9"/>
-    <sheet name="Add room" sheetId="23" r:id="rId10"/>
-    <sheet name="Update room" sheetId="24" r:id="rId11"/>
-    <sheet name="Delete room" sheetId="25" r:id="rId12"/>
-    <sheet name="Booking accommodation" sheetId="19" r:id="rId13"/>
-    <sheet name="Report" sheetId="28" r:id="rId14"/>
-    <sheet name="Change Password" sheetId="15" r:id="rId15"/>
-    <sheet name="Update Information" sheetId="16" r:id="rId16"/>
-    <sheet name="Acceptance" sheetId="29" r:id="rId17"/>
-    <sheet name="View list of reports" sheetId="30" r:id="rId18"/>
-    <sheet name="Delete account" sheetId="31" r:id="rId19"/>
-    <sheet name="Delete accommodation" sheetId="32" r:id="rId20"/>
+    <sheet name="View accomodation" sheetId="10" r:id="rId5"/>
+    <sheet name="Search" sheetId="33" r:id="rId6"/>
+    <sheet name="View list of zone" sheetId="26" r:id="rId7"/>
+    <sheet name="Add zone" sheetId="20" r:id="rId8"/>
+    <sheet name="Update zone" sheetId="21" r:id="rId9"/>
+    <sheet name="Delete zone" sheetId="22" r:id="rId10"/>
+    <sheet name="View list of room" sheetId="27" r:id="rId11"/>
+    <sheet name="Add room" sheetId="23" r:id="rId12"/>
+    <sheet name="Update room" sheetId="24" r:id="rId13"/>
+    <sheet name="Delete room" sheetId="25" r:id="rId14"/>
+    <sheet name="Booking accommodation" sheetId="19" r:id="rId15"/>
+    <sheet name="Report" sheetId="28" r:id="rId16"/>
+    <sheet name="Change Password" sheetId="15" r:id="rId17"/>
+    <sheet name="Acceptance" sheetId="29" r:id="rId18"/>
+    <sheet name="View list of reports" sheetId="30" r:id="rId19"/>
+    <sheet name="Delete account" sheetId="31" r:id="rId20"/>
+    <sheet name="Delete accommodation" sheetId="32" r:id="rId21"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="497">
   <si>
     <t>Test case id</t>
   </si>
@@ -144,9 +145,6 @@
 8) Fill fail "Nhập Lại Mật khẩu cũ:*" field and true all</t>
   </si>
   <si>
-    <t>Update Information</t>
-  </si>
-  <si>
     <t>User must accesses the website.</t>
   </si>
   <si>
@@ -154,12 +152,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>1) "Họ tên" textbox: 'Ha Lan'
-2) "E-mail" textbox: 'huynhvuhalan.97@gmail.com'
-3) "Mật khẩu": '1234abcd'
-4) "Xác nhận mật khẩu": '1234abcd'</t>
   </si>
   <si>
     <t>Open</t>
@@ -185,12 +177,6 @@
   </si>
   <si>
     <t>Register without full name.</t>
-  </si>
-  <si>
-    <t>1) "Họ tên" textbox: Empty
-2) "E-mail" textbox: 'lanhuynh@gmail.com'
-3) "Mật khẩu": '1234abcd'
-4) "Xác nhận mật khẩu": '1234abcd'</t>
   </si>
   <si>
     <t>1) Open browser 
@@ -215,12 +201,6 @@
     <t>Register with invalid e-mail account</t>
   </si>
   <si>
-    <t>1) "Họ tên" textbox: Thanh Van
-2) "E-mail" textbox: 'thanhvanhuynh'
-3) "Mật khẩu": '1234abcd'
-4) "Xác nhận mật khẩu": '1234abcd'</t>
-  </si>
-  <si>
     <t>1) Open browser 
 2) Type the link: 
 3) Click on "Đăng ký" button
@@ -246,18 +226,6 @@
     <t>Register without e-mail account.</t>
   </si>
   <si>
-    <t>1) "Họ tên" textbox: Thanh Van
-2) "E-mail" textbox: 'thanh/&gt;vanhu ynh@gmail.com'
-3) "Mật khẩu": '1234abcd'
-4) "Xác nhận mật khẩu": '1234abcd'</t>
-  </si>
-  <si>
-    <t>1) "Họ tên" textbox: Thanh Van
-2) "E-mail" textbox: Empty
-3) "Mật khẩu": '1234abcd'
-4) "Xác nhận mật khẩu": '1234abcd'</t>
-  </si>
-  <si>
     <t>1) Open browser 
 2) Type the link: 
 3) Click on "Đăng ký" button
@@ -266,12 +234,6 @@
 6) Click on "Đăng ký"</t>
   </si>
   <si>
-    <t>1) "Họ tên" textbox: Thanh Van
-2) "E-mail" textbox: 'thanhvan@gmail.com'
-3) "Mật khẩu": '1234'
-4) "Xác nhận mật khẩu": '1234'</t>
-  </si>
-  <si>
     <t>The screen displays "Mật khẩu phải có trên 5 kí tự và dưới 20 kí tự" message box.</t>
   </si>
   <si>
@@ -281,19 +243,7 @@
     <t>Register with more character than size of password</t>
   </si>
   <si>
-    <t>1) "Họ tên" textbox: Thanh Van
-2) "E-mail" textbox: 'thanhvan@gmail.com'
-3) "Mật khẩu": '12345678910abcdefghijklmn'
-4) "Xác nhận mật khẩu": '12345678910abcdefghijklmn'</t>
-  </si>
-  <si>
     <t>Register with invalid password</t>
-  </si>
-  <si>
-    <t>1) "Họ tên" textbox: Thanh Van
-2) "E-mail" textbox: 'thanhvan@gmail.com'
-3) "Mật khẩu": '123&lt;&gt;?abc+'
-4) "Xác nhận mật khẩu": '123&lt;&gt;?abc+'</t>
   </si>
   <si>
     <t>Register with password and confirm password are not match.</t>
@@ -323,22 +273,10 @@
 6) Click on "Đăng ký"</t>
   </si>
   <si>
-    <t>1) "Họ tên" textbox: Hoang Quóc
-2) "E-mail" textbox: 'hoangquoc.le@gmail.com'
-3) "Mật khẩu": '1234abcd'
-4) "Xác nhận mật khẩu": '4321abcd'</t>
-  </si>
-  <si>
     <t>The screen displays "Mật khẩu không giống nhau" message box.</t>
   </si>
   <si>
     <t>Register without password</t>
-  </si>
-  <si>
-    <t>1) "Họ tên" textbox: Hoang Quóc
-2) "E-mail" textbox: 'hoangquoc.le@gmail.com'
-3) "Mật khẩu": Empty
-4) "Xác nhận mật khẩu": '1234abcd'</t>
   </si>
   <si>
     <t>1) Open browser
@@ -357,12 +295,6 @@
     <t>Register without confirm password</t>
   </si>
   <si>
-    <t>1) "Họ tên" textbox: Hoang Quóc
-2) "E-mail" textbox: 'hoangquoc.le@gmail.com'
-3) "Mật khẩu": '1234abcd'
-4) "Xác nhận mật khẩu": Empty</t>
-  </si>
-  <si>
     <t>1) Open browser
 2) Type the link:
 3) Don't input password for "Xác nhận mật khẩu" textbox
@@ -371,12 +303,6 @@
   </si>
   <si>
     <t>Register with e-mail account which already exists</t>
-  </si>
-  <si>
-    <t>1) "Họ tên" textbox: Huynh Quoc Nhat
-2) "E-mail" textbox: 'huynhvuhalan.97@gmail.com'
-3) "Mật khẩu": '1234abcd'
-4) "Xác nhận mật khẩu": '1234abcd'</t>
   </si>
   <si>
     <t>1) Open browser 
@@ -388,12 +314,6 @@
   </si>
   <si>
     <t>The screen displays "E-mail đã tồn tại" message box.</t>
-  </si>
-  <si>
-    <t>1) "Họ tên" textbox: Trung Anh (ab)x50
-2) "E-mail" textbox: 'trunganhho@gmail.com'
-3) "Mật khẩu": '1234abcd'
-4) "Xác nhận mật khẩu": '1234abcd'</t>
   </si>
   <si>
     <t>1) Open browser
@@ -467,85 +387,6 @@
 8) Fill true"Nhập Lại Mật khẩu cũ:*" field and fail are "1"</t>
   </si>
   <si>
-    <t>1) Open browser
-2) Type the link 
-3) Observe the result on browser
-4) Click "Đăng nhập"
-5) Login with user account with emmail is "huynhvuhalan.97@gmail.com"
-6) Click into
-7) Click into "Chỉnh sửa thông tin" button</t>
-  </si>
-  <si>
-    <t>1) Open browser
-2) Type the link:
-3) Observe the result on browser
-4) Click "Đăng nhập"
-5) Login with user account with emmail is "thainguyenbahuy@gmail.com"
-6) Click into
-7) Click into "Chỉnh sửa thông tin" button
-8) Fill field "Số điện thoại:" is "aaaaa" and "Địa chỉ:" is true</t>
-  </si>
-  <si>
-    <t>1) Open browser
-2) Type the link:
-3) Observe the result on browser
-4) Click "Đăng nhập"
-5) Login with user account with emmail is "huynhvuhalan.97@gmail.com"
-6) CLick into
-7) Click into "Chỉnh sửa thông tin" button
-8) Fill field "Số điện thoại:" is "123456789" and "Địa chỉ:" is true</t>
-  </si>
-  <si>
-    <t>1) Open browser
-2) Type the link:
-3) Observe the result on browser
-4) Click "Đăng nhập"
-5) Login with user account with emmail is "huynhvuhalan.97@gmail.com"
-6) Click into 
-7) Click into "Chỉnh sửa thông tin" button
-8) Fill field "Số điện thoại:" is "0234567891" and "Địa chỉ:" is true</t>
-  </si>
-  <si>
-    <t>1) Open browser
-2) Type the link:
-3) Observe the result on browser
-4) Click "Đăng nhập"
-5) Login with user account with emmail is "huynhvuhalan.97@gmail.com"
-6) lick into 
-7) Click into "Chỉnh sửa thông tin" button
-8) Fill field "Số điện thoại:" is null and "Địa chỉ:" is null</t>
-  </si>
-  <si>
-    <t>1) Open browser
-2) Type the link:
-3) Observe the result on browser
-4) Click "Đăng nhập"
-5) Login with user account with emmail is "huynhvuhalan.97@gmail.com"
-6) Click into
-7) Click into "Chỉnh sửa thông tin" button
-8) Fill field "Số điện thoại:" is "123" and "Địa chỉ:" is null</t>
-  </si>
-  <si>
-    <t>1) Open browser
-2) Type the link:
-3) Observe the result on browser
-4) Click "Đăng nhập"
-5) Login with user account with emmail is "huynhvuhalan.97@gmail.com"
-6) CLick into "Xin chào Bá Huy"
-7) Click into "Chỉnh sửa thông tin" button
-8) Fill field "Số điện thoại:" is null and "Địa chỉ:" is "123"</t>
-  </si>
-  <si>
-    <t>1) Open browser
-2) Type the link:
-3) Observe the result on browser
-4) Click "Đăng nhập"
-5) Login with user account with emmail is "huynhvuhalan.97@gmail.com"
-6) Click into 
-7) Click into "Chỉnh sửa thông tin" button
-8) Fill field "Số điện thoại:" is "01686230218" and "Địa chỉ:" is "123 adsb wwwww"</t>
-  </si>
-  <si>
     <t>TC_R01</t>
   </si>
   <si>
@@ -1730,6 +1571,436 @@
   </si>
   <si>
     <t>The screen displays "Yêu cầu của bạn đã được gởi đi. Trong vòng 48h tới nếu không được xác nhận, yêu cầu nỹ sẽ bị hủy." message box and the browser to view home page of RS.</t>
+  </si>
+  <si>
+    <t>TC_S01</t>
+  </si>
+  <si>
+    <t>Module Name: Search</t>
+  </si>
+  <si>
+    <t>User must 
+accesses the website.</t>
+  </si>
+  <si>
+    <t>1) "Tỉnh/ Thành Phố": 'Đà Nẵng'
+2) "Quận/ Huyện": 'Hải Châu'
+3) "Phường/ Xã": 'Hòa Cường Bắc'
+4) "Kiểu chỗ ở": 'Phòng trọ'
+5) "Giá từ": 'Dưới 1 triệu'</t>
+  </si>
+  <si>
+    <t>Search with fully information</t>
+  </si>
+  <si>
+    <t>1) Choose fully information for boxes
+2) Click on "Tìm kiếm" button</t>
+  </si>
+  <si>
+    <t>Browser to view all accommodations fit with those information</t>
+  </si>
+  <si>
+    <t>TC_S02</t>
+  </si>
+  <si>
+    <t>Search without city or province name</t>
+  </si>
+  <si>
+    <t>1) Choose fully information for all boxes except "Tỉnh/Thành Phố"
+2) Click on "Tìm kiếm" button</t>
+  </si>
+  <si>
+    <t>In "Quận/ Huyện" and "Phường/ Xã" boxes, there is no option to choose. Browser to view all accommodations fit with that type accommodation and price at Da Nang</t>
+  </si>
+  <si>
+    <t>TC_S03</t>
+  </si>
+  <si>
+    <t>Search without district name</t>
+  </si>
+  <si>
+    <t>1) "Tỉnh/ Thành Phố": 'Đà Nẵng'
+2) "Quận/ Huyện": Empty
+3) "Phường/ Xã": 'Hòa Cường Bắc'
+4) "Kiểu chỗ ở": 'Phòng trọ'
+5) "Giá từ": 'Dưới 1 triệu'</t>
+  </si>
+  <si>
+    <t>1) "Tỉnh/ Thành Phố": Empty
+2) "Quận/ Huyện": 'Hải Châu'
+3) "Phường/ Xã": 'Hòa Cường Bắc'
+4) "Kiểu chỗ ở": 'Phòng trọ'
+5) "Giá từ": 'Dưới 1 triệu'</t>
+  </si>
+  <si>
+    <t>1) Choose fully information for all boxes except "Quận/ Huyện"
+2) Click on "Tìm kiếm" button</t>
+  </si>
+  <si>
+    <t>In "Phường/ Xã" boxes, there is no option to choose. Browser to view all accommodations fit with that type accommodation and price at Da Nang</t>
+  </si>
+  <si>
+    <t>TC_S04</t>
+  </si>
+  <si>
+    <t>Search without ward name</t>
+  </si>
+  <si>
+    <t>1) "Tỉnh/ Thành Phố": 'Đà Nẵng'
+2) "Quận/ Huyện": 'Hải Châu'
+3) "Phường/ Xã": Empty
+4) "Kiểu chỗ ở": 'Phòng trọ'
+5) "Giá từ": 'Dưới 1 triệu'</t>
+  </si>
+  <si>
+    <t>1) Choose fully information for all boxes except "Phường/ Xã"
+2) Click on "Tìm kiếm" button</t>
+  </si>
+  <si>
+    <t>Browser to view all accommodations fit with those information and zoom in Hòa Cường Bắc ward on the map.</t>
+  </si>
+  <si>
+    <t>Browser to view all accommodations fit with those information and zoom in Hải Châu district on the map.</t>
+  </si>
+  <si>
+    <t>TC_S05</t>
+  </si>
+  <si>
+    <t>Search without type of accomodation</t>
+  </si>
+  <si>
+    <t>1) "Tỉnh/ Thành Phố": 'Đà Nẵng'
+2) "Quận/ Huyện": 'Hải Châu'
+3) "Phường/ Xã": 'Hòa Cường Bắc'
+4) "Kiểu chỗ ở": Empty
+5) "Giá từ": 'Dưới 1 triệu'</t>
+  </si>
+  <si>
+    <t>TC_S06</t>
+  </si>
+  <si>
+    <t>Search without price of accomodation</t>
+  </si>
+  <si>
+    <t>1) "Tỉnh/ Thành Phố": 'Đà Nẵng'
+2) "Quận/ Huyện": 'Hải Châu'
+3) "Phường/ Xã": 'Hòa Cường Bắc'
+4) "Kiểu chỗ ở": 'Phòng trọ'
+5) "Giá từ": Empty</t>
+  </si>
+  <si>
+    <t>1) Choose fully information for all boxes except "Kiểu chỗ ở"
+2) Click on "Tìm kiếm" button</t>
+  </si>
+  <si>
+    <t>1) Choose fully information for all boxes except "Giá"
+2) Click on "Tìm kiếm" button</t>
+  </si>
+  <si>
+    <t>Update the name</t>
+  </si>
+  <si>
+    <t>"Tên bạn": 'Hạ Lan'</t>
+  </si>
+  <si>
+    <t>Screen diplays "Cập nhật thành công" and that information is save in database.</t>
+  </si>
+  <si>
+    <t>Update phone number</t>
+  </si>
+  <si>
+    <t>"Số điện thoại": '0375333265'</t>
+  </si>
+  <si>
+    <t>Update password</t>
+  </si>
+  <si>
+    <t>"Mật khẩu": "1233abcd"</t>
+  </si>
+  <si>
+    <t>Screen diplays "Thay đổi mật khẩu thành công" and that information is save in database.</t>
+  </si>
+  <si>
+    <t>TC_S07</t>
+  </si>
+  <si>
+    <t>Search with name contains special characters.</t>
+  </si>
+  <si>
+    <t>TC_UI01</t>
+  </si>
+  <si>
+    <t>TC_UI02</t>
+  </si>
+  <si>
+    <t>TC_UI03</t>
+  </si>
+  <si>
+    <t>TC_UI04</t>
+  </si>
+  <si>
+    <t>TC_UI05</t>
+  </si>
+  <si>
+    <t>TC_UI06</t>
+  </si>
+  <si>
+    <t>TC_UI07</t>
+  </si>
+  <si>
+    <t>TC_UI08</t>
+  </si>
+  <si>
+    <t>TC_UI09</t>
+  </si>
+  <si>
+    <t>Update with name contains special characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Tên bạn": 'Ha // Lan'
+</t>
+  </si>
+  <si>
+    <t>TC_R15</t>
+  </si>
+  <si>
+    <t>Register with full name contains numbers.</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: 'Ha12 Lan'
+2) "E-mail" textbox: 'abcd1234@gmail.com'
+3) "Mật khẩu": '1234abcd'
+4) "Xác nhận mật khẩu": '1234abcd'</t>
+  </si>
+  <si>
+    <t>Update with name contains numbers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Tên bạn": 'Ha12 Lan'
+</t>
+  </si>
+  <si>
+    <t>TC_R16</t>
+  </si>
+  <si>
+    <t>Register with phone number contrain special characters.</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: 'Ha Lan'
+2) "E-mail" textbox: 'huynhvuhalan.97@gmail.com'
+3) "Mật khẩu": '1234abcd'
+4) "Xác nhận mật khẩu": '1234abcd'
+5) "Số điện thoại": '01675373265'</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: 'Ha // Lan'
+2) "E-mail" textbox: 'abcd1234@gmail.com'
+3) "Mật khẩu": '1234abcd'
+4) "Xác nhận mật khẩu": '1234abcd'
+5) "Số điện thoại": '01675373265'</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: Empty
+2) "E-mail" textbox: 'lanhuynh@gmail.com'
+3) "Mật khẩu": '1234abcd'
+4) "Xác nhận mật khẩu": '1234abcd'
+5) "Số điện thoại": '01675373265'</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: Thanh Van
+2) "E-mail" textbox: 'thanhvanhuynh'
+3) "Mật khẩu": '1234abcd'
+4) "Xác nhận mật khẩu": '1234abcd'
+5) "Số điện thoại": '01675373265'</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: Thanh Van
+2) "E-mail" textbox: 'thanh/&gt;vanhu ynh@gmail.com'
+3) "Mật khẩu": '1234abcd'
+4) "Xác nhận mật khẩu": '1234abcd'
+5) "Số điện thoại": '01675373265'</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: Thanh Van
+2) "E-mail" textbox: Empty
+3) "Mật khẩu": '1234abcd'
+4) "Xác nhận mật khẩu": '1234abcd'
+5) "Số điện thoại": '01675373265'</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: Thanh Van
+2) "E-mail" textbox: 'thanhvan@gmail.com'
+3) "Mật khẩu": '1234'
+4) "Xác nhận mật khẩu": '1234'
+5) "Số điện thoại": '01675373265'</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: Thanh Van
+2) "E-mail" textbox: 'thanhvan@gmail.com'
+3) "Mật khẩu": '12345678910abcdefghijklmn'
+4) "Xác nhận mật khẩu": '12345678910abcdefghijklmn'
+5) "Số điện thoại": '01675373265'</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: Thanh Van
+2) "E-mail" textbox: 'thanhvan@gmail.com'
+3) "Mật khẩu": '123&lt;&gt;?abc+'
+4) "Xác nhận mật khẩu": '123&lt;&gt;?abc+'
+5) "Số điện thoại": '01675373265'</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: Hoang Quóc
+2) "E-mail" textbox: 'hoangquoc.le@gmail.com'
+3) "Mật khẩu": '1234abcd'
+4) "Xác nhận mật khẩu": '4321abcd'
+5) "Số điện thoại": '01675373265'</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: Hoang Quóc
+2) "E-mail" textbox: 'hoangquoc.le@gmail.com'
+3) "Mật khẩu": Empty
+4) "Xác nhận mật khẩu": '1234abcd'
+5) "Số điện thoại": '01675373265'</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: Hoang Quóc
+2) "E-mail" textbox: 'hoangquoc.le@gmail.com'
+3) "Mật khẩu": '1234abcd'
+4) "Xác nhận mật khẩu": Empty
+5) "Số điện thoại": '01675373265'</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: Huynh Quoc Nhat
+2) "E-mail" textbox: 'huynhvuhalan.97@gmail.com'
+3) "Mật khẩu": '1234abcd'
+4) "Xác nhận mật khẩu": '1234abcd'
+5) "Số điện thoại": '01675373265'</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: Trung Anh (ab)x50
+2) "E-mail" textbox: 'trunganhho@gmail.com'
+3) "Mật khẩu": '1234abcd'
+4) "Xác nhận mật khẩu": '1234abcd'
+5) "Số điện thoại": '01675373265'</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: 'Ha12 Lan'
+2) "E-mail" textbox: 'abcd1234@gmail.com'
+3) "Mật khẩu": '1234abcd'
+4) "Xác nhận mật khẩu": '1234abcd'
+5) "Số điện thoại": '01@$675373265'</t>
+  </si>
+  <si>
+    <t>The screen displays "Vui lòng nhập đúng số điện thoại".</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>TC_R17</t>
+  </si>
+  <si>
+    <t>Register with phone number contrain alphabetical.</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: 'Ha12 Lan'
+2) "E-mail" textbox: 'abcd1234@gmail.com'
+3) "Mật khẩu": '1234abcd'
+4) "Xác nhận mật khẩu": '1234abcd'
+5) "Số điện thoại": '01aj675373265'</t>
+  </si>
+  <si>
+    <t>TC_R18</t>
+  </si>
+  <si>
+    <t>Register without phone number.</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: Thanh Van
+2) "E-mail" textbox: 'abcd1234@gmail.com'
+3) "Mật khẩu": '1234abcd'
+4) "Xác nhận mật khẩu": '1234abcd'
+5) "Số điện thoại": Empty</t>
+  </si>
+  <si>
+    <t>1) Open browser 
+2) Type the link: 
+3) Click on "Đăng ký" button
+4) Don't input information for "Số điện thoại" textbox.
+5) Input valid information for others textbox.
+6) Click on "Đăng ký"</t>
+  </si>
+  <si>
+    <t>TC_R19</t>
+  </si>
+  <si>
+    <t>Register with valid phone number.</t>
+  </si>
+  <si>
+    <t>1) "Họ tên" textbox: Thanh Van
+2) "E-mail" textbox: 'abcd1234@gmail.com'
+3) "Mật khẩu": '1234abcd'
+4) "Xác nhận mật khẩu": '1234abcd'
+5) "Số điện thoại": 12345678</t>
+  </si>
+  <si>
+    <t>1) Open browser 
+2) Type the link: 
+3) Click on "Đăng ký" button
+5) Input information for boxes.
+6) Click on "Đăng ký"</t>
+  </si>
+  <si>
+    <t>Update with phone number contrain special characters.</t>
+  </si>
+  <si>
+    <t>"Số điện thoại": '0375333*(5'</t>
+  </si>
+  <si>
+    <t>Update with phone number contrain alphabetical.</t>
+  </si>
+  <si>
+    <t>"Số điện thoại": '0375333ac5'</t>
+  </si>
+  <si>
+    <t>"Số điện thoại": Empty</t>
+  </si>
+  <si>
+    <t>1) Click into "Chỉnh sửa thông tin" button
+2) Enter information for "Tên bạn" box
+3) Click on "Lưu" button</t>
+  </si>
+  <si>
+    <t>1) Click into "Chỉnh sửa thông tin" button
+2) Enter information for "Số điện thoại" box
+3) Click on "Lưu" button</t>
+  </si>
+  <si>
+    <t>1) Click into "Chỉnh sửa thông tin" button
+2) Enter information for "Mật khẩu" box
+3) Click on "Lưu" button</t>
+  </si>
+  <si>
+    <t>1) Click into "Chỉnh sửa thông tin" button
+2) Delete phone number in "Số điện thoại" box
+3) Click on "Lưu" button</t>
+  </si>
+  <si>
+    <t>"Số điện thoại": '123456789'</t>
+  </si>
+  <si>
+    <t>TC_UI10</t>
+  </si>
+  <si>
+    <t>Register without name.</t>
+  </si>
+  <si>
+    <t>"Tên bạn": Empty</t>
+  </si>
+  <si>
+    <t>1) Click into "Chỉnh sửa thông tin" button
+2) Delete name in "Tên bạn" box
+3) Click on "Lưu" button</t>
   </si>
 </sst>
 </file>
@@ -2006,7 +2277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2189,6 +2460,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2237,14 +2517,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2527,10 +2822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2546,57 +2841,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="68"/>
+      <c r="A1" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="71"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="68" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="72" t="s">
-        <v>383</v>
-      </c>
-      <c r="E2" s="72"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="75" t="s">
+        <v>361</v>
+      </c>
+      <c r="E2" s="75"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="70" t="s">
-        <v>384</v>
-      </c>
-      <c r="E3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="73" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3" s="73"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -2615,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
@@ -2636,413 +2931,558 @@
         <v>8</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>455</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>456</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>458</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>54</v>
+        <v>459</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>460</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>57</v>
+        <v>461</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>61</v>
+        <v>462</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>63</v>
+        <v>463</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>68</v>
+        <v>464</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>71</v>
+        <v>465</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>75</v>
+        <v>466</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>81</v>
+        <v>468</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3062,6 +3502,355 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="71"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="75"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="69"/>
+      <c r="B3" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="73"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="69"/>
+      <c r="B4" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="71"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="75"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="69"/>
+      <c r="B3" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="73"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="69"/>
+      <c r="B4" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="12" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
@@ -3081,61 +3870,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="68"/>
+      <c r="A1" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="71"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="68" t="s">
-        <v>308</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="72"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="75"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="73"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -3162,413 +3951,413 @@
         <v>8</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H13" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="H14" s="48" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="49" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="H15" s="48" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="49" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="H16" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="H17" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="H18" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="H19" s="48" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="49" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="H20" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I20" s="49" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -3587,7 +4376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -3609,61 +4398,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="68"/>
+      <c r="A1" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="71"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="68" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="72"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="75"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="73"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -3690,355 +4479,355 @@
         <v>8</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>245</v>
-      </c>
       <c r="F13" s="8" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="H13" s="43" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="H14" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="H16" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="H17" s="43" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="44" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="B18" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="G18" s="42" t="s">
         <v>288</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>310</v>
       </c>
       <c r="H18" s="43" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="44" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -4057,7 +4846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -4077,57 +4866,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>85</v>
+      <c r="A1" s="69" t="s">
+        <v>71</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="68"/>
+        <v>218</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="71"/>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="52" t="s">
-        <v>314</v>
-      </c>
-      <c r="C2" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="72"/>
+        <v>292</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="75"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="70"/>
+        <v>220</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="73"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -4154,61 +4943,61 @@
         <v>8</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="42" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="H7" s="42" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="42" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="H8" s="42" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4224,7 +5013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
@@ -4245,71 +5034,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="68"/>
+      <c r="A1" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="71"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="68" t="s">
-        <v>315</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="72"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="75"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="73"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+    <row r="5" spans="1:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -4337,27 +5126,27 @@
         <v>8</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="3"/>
@@ -4365,80 +5154,80 @@
     </row>
     <row r="8" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -4446,22 +5235,22 @@
     </row>
     <row r="11" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -4469,22 +5258,22 @@
     </row>
     <row r="12" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>340</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="3"/>
@@ -4492,22 +5281,22 @@
     </row>
     <row r="13" spans="1:10" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="3"/>
@@ -4515,51 +5304,51 @@
     </row>
     <row r="14" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -4567,22 +5356,22 @@
     </row>
     <row r="16" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
@@ -4590,22 +5379,22 @@
     </row>
     <row r="17" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
@@ -4613,22 +5402,22 @@
     </row>
     <row r="18" spans="1:9" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
@@ -4650,7 +5439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -4670,72 +5459,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="68"/>
+      <c r="A1" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="71"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="68" t="s">
-        <v>377</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="72"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="75"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="73"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+    <row r="5" spans="1:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -4763,88 +5552,88 @@
         <v>8</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4863,11 +5652,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
@@ -4884,61 +5673,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="68"/>
+      <c r="A1" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="71"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="68" t="s">
-        <v>376</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="72"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="75"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="73"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -4977,7 +5766,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -4995,7 +5784,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="8"/>
@@ -5031,7 +5820,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -5049,7 +5838,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -5111,290 +5900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="16" style="12" customWidth="1"/>
-    <col min="3" max="3" width="22" style="12" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="68" t="s">
-        <v>375</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="41"/>
-    </row>
-    <row r="8" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>2</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="41"/>
-    </row>
-    <row r="9" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>3</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>4</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="41"/>
-    </row>
-    <row r="11" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>5</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="41"/>
-    </row>
-    <row r="12" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="41"/>
-    </row>
-    <row r="13" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>7</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="41"/>
-    </row>
-    <row r="14" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>8</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="41"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:E4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
@@ -5415,57 +5921,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="68"/>
+      <c r="A1" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="71"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="68" t="s">
-        <v>378</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="72"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="75"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="73"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -5505,144 +6011,144 @@
         <v>8</v>
       </c>
       <c r="I6" s="64" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="65" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="67" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>366</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>365</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>382</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>380</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>381</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>381</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="68" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="65" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="66" t="s">
+        <v>368</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>383</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="65" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+    <row r="9" spans="1:9" s="65" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="66" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D9" s="66" t="s">
         <v>382</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="E9" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="65" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="66" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>382</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>382</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="H10" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="65" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="66" t="s">
+        <v>379</v>
+      </c>
+      <c r="B11" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="C7" s="84" t="s">
-        <v>387</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>404</v>
-      </c>
-      <c r="E7" s="84" t="s">
-        <v>402</v>
-      </c>
-      <c r="F7" s="84" t="s">
-        <v>403</v>
-      </c>
-      <c r="G7" s="84" t="s">
-        <v>403</v>
-      </c>
-      <c r="H7" s="84" t="s">
+      <c r="C11" s="66" t="s">
+        <v>389</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>382</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="H11" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="84" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="65" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="B8" s="82" t="s">
-        <v>389</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="D8" s="82" t="s">
-        <v>405</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="65" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="B9" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>404</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="65" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="B10" s="82" t="s">
-        <v>394</v>
-      </c>
-      <c r="C10" s="82" t="s">
-        <v>316</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>404</v>
-      </c>
-      <c r="E10" s="82" t="s">
-        <v>404</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="H10" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="82" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="65" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
-        <v>401</v>
-      </c>
-      <c r="B11" s="82" t="s">
-        <v>410</v>
-      </c>
-      <c r="C11" s="82" t="s">
-        <v>411</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>404</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="H11" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="82" t="s">
-        <v>46</v>
+      <c r="I11" s="66" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -5679,12 +6185,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5700,57 +6206,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="68"/>
+      <c r="A1" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="71"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="68" t="s">
-        <v>379</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="72"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="75"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="73"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -5790,7 +6296,7 @@
         <v>8</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -5808,7 +6314,422 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="16" style="12" customWidth="1"/>
+    <col min="3" max="3" width="22" style="12" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="71"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="75"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="69"/>
+      <c r="B3" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="73"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="69"/>
+      <c r="B4" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="1:9" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -5829,57 +6750,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="68"/>
+      <c r="A1" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="71"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="68" t="s">
-        <v>380</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="72"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="75"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="73"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -5919,7 +6840,7 @@
         <v>8</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -5937,251 +6858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="55" t="s">
-        <v>383</v>
-      </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="76" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="56" t="s">
-        <v>384</v>
-      </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" s="66" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-    </row>
-    <row r="6" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="25" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A5:XFD6"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -6202,57 +6879,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="68"/>
+      <c r="A1" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="71"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="68" t="s">
-        <v>381</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="72"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="75"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="73"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -6292,7 +6969,7 @@
         <v>8</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -6331,57 +7008,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="68"/>
+      <c r="A1" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="71"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="68" t="s">
-        <v>297</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="72" t="s">
-        <v>385</v>
-      </c>
-      <c r="E2" s="72"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="75" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2" s="75"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="70" t="s">
-        <v>386</v>
-      </c>
-      <c r="E3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="73" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3" s="73"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
@@ -6421,12 +7098,12 @@
         <v>8</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>17</v>
@@ -6448,12 +7125,12 @@
         <v>10</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="99" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="3" t="s">
@@ -6473,12 +7150,12 @@
         <v>10</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="3" t="s">
@@ -6498,12 +7175,12 @@
         <v>10</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="82.5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="3" t="s">
@@ -6523,12 +7200,12 @@
         <v>10</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="99" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="3" t="s">
@@ -6548,7 +7225,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -6588,71 +7265,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="68"/>
+      <c r="A1" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="71"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="68" t="s">
-        <v>298</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="72"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="75"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="73"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="66" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
+    <row r="5" spans="1:10" s="69" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -6726,6 +7403,591 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="57"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="69"/>
+      <c r="B2" s="78" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="55" t="s">
+        <v>361</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="69"/>
+      <c r="B3" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="69"/>
+      <c r="B4" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:10" s="69" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+    </row>
+    <row r="6" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="76"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="25" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A5:XFD6"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="57"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="69"/>
+      <c r="B2" s="89" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="86" t="s">
+        <v>361</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="69"/>
+      <c r="B3" s="90" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="87" t="s">
+        <v>362</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="69"/>
+      <c r="B4" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:10" s="69" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+    </row>
+    <row r="6" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="76"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>402</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>404</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>413</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>402</v>
+      </c>
+      <c r="H11" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="92" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>420</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>425</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>402</v>
+      </c>
+      <c r="H12" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="92" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>422</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>424</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>426</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>402</v>
+      </c>
+      <c r="H13" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="92" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>378</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A5:XFD6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -6745,61 +8007,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="68"/>
+      <c r="A1" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="71"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="68" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="72"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="75"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="73"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -6826,32 +8088,32 @@
         <v>8</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -6870,7 +8132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -6890,61 +8152,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="68"/>
+      <c r="A1" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="71"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="68" t="s">
-        <v>300</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="72"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="75"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="73"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -6971,210 +8233,210 @@
         <v>8</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>142</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="H13" s="43" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -7193,7 +8455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -7215,72 +8477,72 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="68"/>
+        <v>71</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="71"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="72"/>
+      <c r="A2" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="75"/>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="73"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="66" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
+    <row r="5" spans="1:10" s="69" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
     </row>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
@@ -7308,210 +8570,210 @@
         <v>8</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="H13" s="43" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -7528,353 +8790,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="68" t="s">
-        <v>306</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>301</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>416</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:E4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="68" t="s">
-        <v>307</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:E4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Document/7.Testing/Test_Case.xlsx
+++ b/Document/7.Testing/Test_Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="12" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="3" r:id="rId1"/>
@@ -23,11 +23,10 @@
     <sheet name="Delete room" sheetId="25" r:id="rId14"/>
     <sheet name="Booking accommodation" sheetId="19" r:id="rId15"/>
     <sheet name="Report" sheetId="28" r:id="rId16"/>
-    <sheet name="Change Password" sheetId="15" r:id="rId17"/>
-    <sheet name="Acceptance" sheetId="29" r:id="rId18"/>
-    <sheet name="View list of reports" sheetId="30" r:id="rId19"/>
-    <sheet name="Delete account" sheetId="31" r:id="rId20"/>
-    <sheet name="Delete accommodation" sheetId="32" r:id="rId21"/>
+    <sheet name="Acceptance" sheetId="29" r:id="rId17"/>
+    <sheet name="View list of reports" sheetId="30" r:id="rId18"/>
+    <sheet name="Delete account" sheetId="31" r:id="rId19"/>
+    <sheet name="Delete accommodation" sheetId="32" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="500">
   <si>
     <t>Test case id</t>
   </si>
@@ -127,22 +126,6 @@
   </si>
   <si>
     <t>Log in to the website successfully.</t>
-  </si>
-  <si>
-    <t>Change Password</t>
-  </si>
-  <si>
-    <t>User must login account</t>
-  </si>
-  <si>
-    <t>1) Open browser
-2) Type the link "http://localhost:88/demoweb/"
-3) Observe the result on browser
-4) Click "Đăng nhập"
-5) Login with user account with emmail is "thainguyenbahuy@gmail.com"
-6) CLick into "Xin chào Bá Huy"
-7) Click into "Đổi mật khẩu" button
-8) Fill fail "Nhập Lại Mật khẩu cũ:*" field and true all</t>
   </si>
   <si>
     <t>User must accesses the website.</t>
@@ -348,43 +331,6 @@
   </si>
   <si>
     <t>Test Executed by: Huynh Vu Ha Lan</t>
-  </si>
-  <si>
-    <t>1) Open browser
-2) Type the link 
-3) Observe the result on browser
-4) Click "Đăng nhập"
-5) Login with user account with emmail is "huynhvuhalan.97@gmail.com"
-6) Click into 
-7) Click into "Đổi mật khẩu" button</t>
-  </si>
-  <si>
-    <t>1) Open browser
-2) Type the link:
-3) Observe the result on browser
-4) Click "Đăng nhập"
-5) Login with user account with emmail is "huynhvuhalan.97@gmail.com"
-6) Click into "Xin chào Hạ Lan"</t>
-  </si>
-  <si>
-    <t>1) Open browser
-2) Type the link: 
-3) Observe the result on browser
-4) Click "Đăng nhập"
-5) Login with user account with emmail is "huynhvuhalan.97@gmail.com"
-6) Click into 
-7) Click into "Đổi mật khẩu" button
-8) Fill true"Nhập Lại Mật khẩu cũ:*" field and fail all</t>
-  </si>
-  <si>
-    <t>1) Open browser
-2) Type the link:
-3) Observe the result on browser
-4) Click "Đăng nhập"
-5) Login with user account with emmail is "huynhvuhalan.97@gmail.com"
-6) Click into
-7) Click into "Đổi mật khẩu" button
-8) Fill true"Nhập Lại Mật khẩu cũ:*" field and fail are "1"</t>
   </si>
   <si>
     <t>TC_R01</t>
@@ -1442,9 +1388,6 @@
     <t>Module Name: Update information</t>
   </si>
   <si>
-    <t>Module Name: Change password</t>
-  </si>
-  <si>
     <t>Module Name: Report</t>
   </si>
   <si>
@@ -1966,48 +1909,83 @@
     <t>"Số điện thoại": Empty</t>
   </si>
   <si>
-    <t>1) Click into "Chỉnh sửa thông tin" button
+    <t>"Số điện thoại": '123456789'</t>
+  </si>
+  <si>
+    <t>TC_UI10</t>
+  </si>
+  <si>
+    <t>"Tên bạn": Empty</t>
+  </si>
+  <si>
+    <t>View exactly account information</t>
+  </si>
+  <si>
+    <t>Click on "Thông tin cá nhân"</t>
+  </si>
+  <si>
+    <t>View exactly that account information</t>
+  </si>
+  <si>
+    <t>TC_UI11</t>
+  </si>
+  <si>
+    <t>TC_UI12</t>
+  </si>
+  <si>
+    <t>Update without phone number.</t>
+  </si>
+  <si>
+    <t>Update with valid phone number.</t>
+  </si>
+  <si>
+    <t>Update without name.</t>
+  </si>
+  <si>
+    <t>1) Click into "Thông tin cá nhân" button
 2) Enter information for "Tên bạn" box
 3) Click on "Lưu" button</t>
   </si>
   <si>
-    <t>1) Click into "Chỉnh sửa thông tin" button
+    <t>1) Click into "Thông tin cá nhân" button
 2) Enter information for "Số điện thoại" box
 3) Click on "Lưu" button</t>
   </si>
   <si>
-    <t>1) Click into "Chỉnh sửa thông tin" button
+    <t>1) Click into "Thông tin cá nhân" button
 2) Enter information for "Mật khẩu" box
 3) Click on "Lưu" button</t>
   </si>
   <si>
-    <t>1) Click into "Chỉnh sửa thông tin" button
+    <t>1) Click into "Thông tin cá nhân" button
 2) Delete phone number in "Số điện thoại" box
 3) Click on "Lưu" button</t>
   </si>
   <si>
-    <t>"Số điện thoại": '123456789'</t>
-  </si>
-  <si>
-    <t>TC_UI10</t>
-  </si>
-  <si>
-    <t>Register without name.</t>
-  </si>
-  <si>
-    <t>"Tên bạn": Empty</t>
-  </si>
-  <si>
-    <t>1) Click into "Chỉnh sửa thông tin" button
+    <t>1) Click into "Thông tin cá nhân" button
 2) Delete name in "Tên bạn" box
 3) Click on "Lưu" button</t>
+  </si>
+  <si>
+    <t>Update with invalid password</t>
+  </si>
+  <si>
+    <t>"Mật khẩu": 'abc'</t>
+  </si>
+  <si>
+    <t>1) Click into "Thông tin cá nhân" button
+2) Delete name in "Mật khẩu" box
+3) Click on "Lưu" button</t>
+  </si>
+  <si>
+    <t>The screen displays "Vui lòng kiểm tra lại mật khẩu".</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2040,14 +2018,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2273,11 +2243,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2337,10 +2306,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2354,7 +2320,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2366,24 +2332,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2407,7 +2373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2417,23 +2383,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2442,7 +2408,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2454,7 +2420,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2469,38 +2435,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2514,36 +2504,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2841,76 +2812,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="A1" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="74"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="75" t="s">
-        <v>361</v>
-      </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="78" t="s">
+        <v>353</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="73" t="s">
-        <v>362</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="76" t="s">
+        <v>354</v>
+      </c>
+      <c r="E3" s="76"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" s="33" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" s="32" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
@@ -2930,559 +2901,559 @@
       <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="22" t="s">
-        <v>34</v>
+      <c r="I7" s="21" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="42" t="s">
-        <v>378</v>
+      <c r="I9" s="41" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>83</v>
+      <c r="A10" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>44</v>
+      <c r="A11" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>48</v>
+      <c r="A12" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>49</v>
+      <c r="A13" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>52</v>
+      <c r="A14" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>53</v>
+      <c r="A15" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>54</v>
+      <c r="A16" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="42" t="s">
-        <v>378</v>
+      <c r="I22" s="41" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="42" t="s">
-        <v>471</v>
+      <c r="I23" s="41" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="42" t="s">
-        <v>471</v>
+      <c r="I24" s="41" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>475</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>476</v>
+      <c r="A25" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>468</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>479</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>480</v>
+      <c r="A26" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>472</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3522,61 +3493,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
+      <c r="A1" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="74"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71" t="s">
-        <v>284</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="75" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -3602,89 +3573,89 @@
       <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="41" t="s">
-        <v>34</v>
+      <c r="I6" s="40" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>122</v>
+        <v>137</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>115</v>
       </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="H7" s="42" t="s">
+      <c r="E7" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="H7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="42" t="s">
-        <v>35</v>
+      <c r="I7" s="41" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>122</v>
+        <v>139</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>115</v>
       </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>394</v>
+      <c r="E8" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>386</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>122</v>
+        <v>143</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>115</v>
       </c>
       <c r="D9" s="19"/>
-      <c r="E9" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="H9" s="42" t="s">
+      <c r="E9" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="H9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="42" t="s">
-        <v>43</v>
+      <c r="I9" s="41" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3725,61 +3696,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
+      <c r="A1" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="74"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="75" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -3805,33 +3776,33 @@
       <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="41" t="s">
-        <v>34</v>
+      <c r="I6" s="40" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="41" t="s">
-        <v>43</v>
+      <c r="I7" s="40" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3870,61 +3841,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
+      <c r="A1" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="74"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="75" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -3951,413 +3922,413 @@
         <v>8</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
-        <v>154</v>
+      <c r="A7" s="39" t="s">
+        <v>147</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="41" t="s">
-        <v>378</v>
+      <c r="I7" s="40" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>158</v>
+        <v>149</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>151</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="43" t="s">
-        <v>43</v>
+      <c r="I8" s="42" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>164</v>
+        <v>158</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>157</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="H9" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="43" t="s">
-        <v>43</v>
+      <c r="I9" s="42" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>170</v>
+        <v>159</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>163</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="H10" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="44" t="s">
-        <v>43</v>
+      <c r="I10" s="43" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>162</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H11" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="44" t="s">
-        <v>43</v>
+      <c r="I11" s="43" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>175</v>
+        <v>167</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>168</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="H12" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="44" t="s">
-        <v>43</v>
+      <c r="I12" s="43" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>181</v>
+        <v>171</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>174</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="H13" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="H13" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="43" t="s">
-        <v>43</v>
+      <c r="I13" s="42" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>182</v>
+        <v>173</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>175</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H14" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="H14" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="49" t="s">
-        <v>43</v>
+      <c r="I14" s="48" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>185</v>
+        <v>177</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>178</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="H15" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="H15" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="49" t="s">
-        <v>43</v>
+      <c r="I15" s="48" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>189</v>
+        <v>180</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>182</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="H16" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="H16" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="49" t="s">
-        <v>35</v>
+      <c r="I16" s="48" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="G17" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="H17" s="48" t="s">
+      <c r="H17" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="49" t="s">
-        <v>35</v>
+      <c r="I17" s="48" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>196</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>197</v>
+        <v>189</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>190</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="H18" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="H18" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="49" t="s">
-        <v>378</v>
+      <c r="I18" s="48" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>203</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>204</v>
+        <v>196</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>197</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="H19" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="49" t="s">
-        <v>43</v>
+      <c r="I19" s="48" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>232</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>233</v>
+        <v>225</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>226</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="H20" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="H20" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="49" t="s">
-        <v>378</v>
+      <c r="I20" s="48" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -4398,61 +4369,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
+      <c r="A1" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="74"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="75" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -4478,356 +4449,356 @@
       <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="41" t="s">
-        <v>34</v>
+      <c r="I6" s="40" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="41" t="s">
-        <v>35</v>
+      <c r="I7" s="40" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>224</v>
+        <v>221</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>217</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="H8" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="H8" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="43" t="s">
-        <v>43</v>
+      <c r="I8" s="42" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>230</v>
+        <v>222</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>223</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="H9" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="43" t="s">
-        <v>43</v>
+      <c r="I9" s="42" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>238</v>
+        <v>235</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>231</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="H10" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="H10" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="43" t="s">
-        <v>43</v>
+      <c r="I10" s="42" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>244</v>
+        <v>236</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>237</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H11" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="H11" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="44" t="s">
-        <v>43</v>
+      <c r="I11" s="43" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>246</v>
+        <v>238</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>239</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="H12" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="H12" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="44" t="s">
-        <v>35</v>
+      <c r="I12" s="43" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>247</v>
+        <v>230</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>240</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="H13" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="H13" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="44" t="s">
-        <v>35</v>
+      <c r="I13" s="43" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>253</v>
+        <v>235</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>246</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="H14" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="44" t="s">
-        <v>43</v>
+      <c r="I14" s="43" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>254</v>
+        <v>238</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>247</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H15" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="44" t="s">
-        <v>43</v>
+      <c r="I15" s="43" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>255</v>
+        <v>238</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>248</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="H16" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="H16" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="44" t="s">
-        <v>43</v>
+      <c r="I16" s="43" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>256</v>
+        <v>230</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>249</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="H17" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="H17" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="44" t="s">
-        <v>378</v>
+      <c r="I17" s="43" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>266</v>
+        <v>258</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>259</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="H18" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="H18" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="44" t="s">
-        <v>378</v>
+      <c r="I18" s="43" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -4866,57 +4837,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="71" t="s">
+      <c r="A1" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="74"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72"/>
+      <c r="B2" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="78"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="C2" s="75" t="s">
+      <c r="D3" s="76"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -4943,61 +4914,61 @@
         <v>8</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>154</v>
+        <v>261</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>147</v>
       </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="H7" s="42" t="s">
+      <c r="E7" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="H7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="42" t="s">
-        <v>35</v>
+      <c r="I7" s="41" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>154</v>
+        <v>143</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>147</v>
       </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="H8" s="42" t="s">
+      <c r="E8" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="H8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="42" t="s">
-        <v>43</v>
+      <c r="I8" s="41" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5034,71 +5005,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
+      <c r="A1" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="74"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71" t="s">
-        <v>293</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="75" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:10" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -5125,28 +5096,28 @@
       <c r="H6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>34</v>
+      <c r="I6" s="26" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="3"/>
@@ -5154,80 +5125,80 @@
     </row>
     <row r="8" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>303</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -5235,22 +5206,22 @@
     </row>
     <row r="11" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -5258,22 +5229,22 @@
     </row>
     <row r="12" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="3"/>
@@ -5281,22 +5252,22 @@
     </row>
     <row r="13" spans="1:10" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="3"/>
@@ -5304,51 +5275,51 @@
     </row>
     <row r="14" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -5356,22 +5327,22 @@
     </row>
     <row r="16" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
@@ -5379,22 +5350,22 @@
     </row>
     <row r="17" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
@@ -5402,22 +5373,22 @@
     </row>
     <row r="18" spans="1:9" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
@@ -5459,72 +5430,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="71" t="s">
+      <c r="A1" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="74"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="78"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71" t="s">
-        <v>355</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="75" t="s">
+      <c r="F3" s="76"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:10" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -5551,89 +5522,89 @@
       <c r="H6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>34</v>
+      <c r="I6" s="26" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>350</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>351</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -5653,254 +5624,6 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71" t="s">
-        <v>354</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>2</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>3</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>4</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>5</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
@@ -5921,59 +5644,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
+      <c r="A1" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="74"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71" t="s">
-        <v>356</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="75" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -5986,189 +5709,189 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="65" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
+      <c r="I6" s="63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="64" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="66" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>374</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>372</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>373</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>373</v>
+      </c>
+      <c r="H7" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="67" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="64" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
         <v>360</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>366</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>365</v>
-      </c>
-      <c r="D7" s="67" t="s">
+      <c r="B8" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="64" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>362</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>374</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="64" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>364</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>374</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>374</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="G10" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="H10" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="64" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" s="65" t="s">
         <v>380</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="C11" s="65" t="s">
         <v>381</v>
       </c>
-      <c r="G7" s="68" t="s">
-        <v>381</v>
-      </c>
-      <c r="H7" s="68" t="s">
+      <c r="D11" s="65" t="s">
+        <v>374</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="H11" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="68" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="65" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="66" t="s">
-        <v>368</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>367</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>383</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="65" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>370</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>382</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="65" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>294</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>382</v>
-      </c>
-      <c r="E10" s="66" t="s">
-        <v>382</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="H10" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="66" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="65" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
-        <v>379</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>388</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>389</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>382</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="H11" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="66" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="I11" s="65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:A4"/>
@@ -6185,7 +5908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -6206,59 +5929,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
+      <c r="A1" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="74"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="75" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -6270,33 +5993,162 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:9" s="61" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+    <row r="6" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="60" t="s">
-        <v>34</v>
+      <c r="I6" s="59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="74"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="76"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -6316,10 +6168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6336,59 +6188,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
+      <c r="A1" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="74"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71" t="s">
-        <v>353</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="75" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -6425,292 +6277,348 @@
       <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="I6" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="93" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="B7" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="92" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>215</v>
-      </c>
       <c r="D8" s="8" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="40"/>
+    </row>
+    <row r="11" spans="1:9" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="1:9" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>452</v>
-      </c>
       <c r="E11" s="8" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="42" t="s">
-        <v>43</v>
+      <c r="I11" s="41" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>484</v>
+        <v>443</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>444</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>470</v>
+        <v>365</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>470</v>
+        <v>365</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="42" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>215</v>
+        <v>475</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="42" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>444</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>476</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>215</v>
+      <c r="I13" s="41" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>480</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>215</v>
+      <c r="I14" s="41" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>493</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>494</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>215</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>373</v>
+        <v>462</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>373</v>
+        <v>462</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
+        <v>487</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>496</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>497</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -6734,135 +6642,6 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71" t="s">
-        <v>358</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" s="61" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="60" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:E4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
@@ -6879,59 +6658,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
+      <c r="A1" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="74"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71" t="s">
-        <v>359</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="75" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -6943,33 +6722,33 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:9" s="61" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+    <row r="6" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="60" t="s">
-        <v>34</v>
+      <c r="I6" s="59" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -7008,69 +6787,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="74"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="78" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="76" t="s">
+        <v>356</v>
+      </c>
+      <c r="E3" s="76"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="75" t="s">
-        <v>363</v>
-      </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="73" t="s">
-        <v>364</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -7097,22 +6876,22 @@
       <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="50" t="s">
-        <v>34</v>
+      <c r="I7" s="49" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -7125,19 +6904,19 @@
         <v>10</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="99" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9" s="24"/>
+        <v>207</v>
+      </c>
+      <c r="B9" s="23"/>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="18"/>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="23" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="10" t="s">
@@ -7150,19 +6929,19 @@
         <v>10</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="B10" s="24"/>
+        <v>209</v>
+      </c>
+      <c r="B10" s="23"/>
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="18"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="10" t="s">
@@ -7175,19 +6954,19 @@
         <v>10</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="B11" s="24"/>
+        <v>210</v>
+      </c>
+      <c r="B11" s="23"/>
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="18"/>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="10" t="s">
@@ -7200,19 +6979,19 @@
         <v>10</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="99" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="24"/>
+        <v>88</v>
+      </c>
+      <c r="B12" s="23"/>
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="23" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -7225,7 +7004,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -7265,71 +7044,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="74"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="76"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" s="69" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:10" s="72" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -7406,8 +7185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7423,81 +7202,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="A1" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="56"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="78" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="55" t="s">
-        <v>361</v>
-      </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="81" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="56" t="s">
-        <v>362</v>
-      </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" s="69" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-    </row>
-    <row r="6" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:10" s="72" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+    </row>
+    <row r="6" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -7524,62 +7303,62 @@
       <c r="H7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="27" t="s">
-        <v>34</v>
+      <c r="I7" s="26" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="25" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="24" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="42" t="s">
-        <v>378</v>
+      <c r="I9" s="41" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -7666,81 +7445,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="88" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="A1" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="56"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="89" t="s">
-        <v>397</v>
-      </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="86" t="s">
-        <v>361</v>
-      </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="84" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="90" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="87" t="s">
-        <v>362</v>
-      </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="70" t="s">
+        <v>354</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" s="69" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-    </row>
-    <row r="6" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:10" s="72" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+    </row>
+    <row r="6" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -7767,221 +7546,221 @@
       <c r="H7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="27" t="s">
-        <v>34</v>
+      <c r="I7" s="26" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>396</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>400</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>398</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>399</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>401</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>417</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>402</v>
-      </c>
-      <c r="H8" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>409</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="H8" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="46" t="s">
-        <v>35</v>
+      <c r="I8" s="45" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>403</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>404</v>
-      </c>
-      <c r="C9" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>402</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="F9" s="45" t="s">
         <v>398</v>
       </c>
-      <c r="D9" s="46" t="s">
-        <v>410</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>405</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>406</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>406</v>
-      </c>
-      <c r="H9" s="46" t="s">
+      <c r="G9" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="H9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="46" t="s">
-        <v>43</v>
+      <c r="I9" s="45" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>407</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>408</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>398</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>409</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>411</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>412</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>412</v>
-      </c>
-      <c r="H10" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>401</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>403</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>404</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>404</v>
+      </c>
+      <c r="H10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="46" t="s">
-        <v>43</v>
+      <c r="I10" s="45" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>413</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>414</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>398</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>418</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>402</v>
-      </c>
-      <c r="H11" s="92" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>410</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="H11" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="92" t="s">
-        <v>35</v>
+      <c r="I11" s="71" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>419</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>420</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>398</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>421</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>425</v>
-      </c>
-      <c r="F12" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>413</v>
+      </c>
+      <c r="E12" s="45" t="s">
         <v>417</v>
       </c>
-      <c r="G12" s="46" t="s">
-        <v>402</v>
-      </c>
-      <c r="H12" s="92" t="s">
+      <c r="F12" s="45" t="s">
+        <v>409</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="H12" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="92" t="s">
-        <v>35</v>
+      <c r="I12" s="71" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>422</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>423</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>398</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>424</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>426</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>417</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>402</v>
-      </c>
-      <c r="H13" s="92" t="s">
+        <v>414</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>416</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>418</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>409</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="H13" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="92" t="s">
-        <v>35</v>
+      <c r="I13" s="71" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="42" t="s">
-        <v>378</v>
+      <c r="I14" s="41" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A5:XFD6"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A5:XFD6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8007,61 +7786,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
+      <c r="A1" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="74"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="75" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -8088,32 +7867,32 @@
         <v>8</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -8152,61 +7931,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
+      <c r="A1" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="74"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="75" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -8232,211 +8011,211 @@
       <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="41" t="s">
-        <v>34</v>
+      <c r="I6" s="40" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="41" t="s">
-        <v>378</v>
+      <c r="I7" s="40" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>102</v>
+        <v>122</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>95</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="45" t="s">
-        <v>105</v>
-      </c>
       <c r="E8" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="43" t="s">
-        <v>43</v>
+      <c r="I8" s="42" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>104</v>
+        <v>123</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>97</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="43" t="s">
-        <v>43</v>
+      <c r="I9" s="42" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>108</v>
+        <v>124</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>101</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="44" t="s">
-        <v>43</v>
+      <c r="I10" s="43" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>116</v>
+        <v>125</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>109</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H11" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="44" t="s">
-        <v>43</v>
+      <c r="I11" s="43" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="H12" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="44" t="s">
-        <v>43</v>
+      <c r="I12" s="43" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>121</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>188</v>
+        <v>91</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>181</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H13" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="43" t="s">
-        <v>35</v>
+      <c r="I13" s="42" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -8476,73 +8255,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
+      <c r="A1" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="74"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="75" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" s="69" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:10" s="72" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
@@ -8569,211 +8348,211 @@
       <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="41" t="s">
-        <v>34</v>
+      <c r="I6" s="40" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="41" t="s">
-        <v>35</v>
+      <c r="I7" s="40" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>119</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>105</v>
+        <v>115</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>98</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="43" t="s">
-        <v>43</v>
+      <c r="I8" s="42" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>127</v>
+        <v>130</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>120</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>135</v>
+        <v>115</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>128</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H9" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="H9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="43" t="s">
-        <v>35</v>
+      <c r="I9" s="42" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>249</v>
+        <v>131</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>242</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="43" t="s">
-        <v>43</v>
+      <c r="I10" s="42" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>250</v>
+        <v>132</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>243</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="44" t="s">
-        <v>43</v>
+      <c r="I11" s="43" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>251</v>
+        <v>133</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>244</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H12" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="44" t="s">
-        <v>43</v>
+      <c r="I12" s="43" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>252</v>
+        <v>134</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>245</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="H13" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="44" t="s">
-        <v>43</v>
+      <c r="I13" s="43" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Document/7.Testing/Test_Case.xlsx
+++ b/Document/7.Testing/Test_Case.xlsx
@@ -4,29 +4,31 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="3" r:id="rId1"/>
-    <sheet name="Update Information" sheetId="16" r:id="rId2"/>
-    <sheet name="Login" sheetId="12" r:id="rId3"/>
-    <sheet name="Logout" sheetId="11" r:id="rId4"/>
-    <sheet name="View accomodation" sheetId="10" r:id="rId5"/>
-    <sheet name="Search" sheetId="33" r:id="rId6"/>
-    <sheet name="View list of zone" sheetId="26" r:id="rId7"/>
-    <sheet name="Add zone" sheetId="20" r:id="rId8"/>
-    <sheet name="Update zone" sheetId="21" r:id="rId9"/>
-    <sheet name="Delete zone" sheetId="22" r:id="rId10"/>
-    <sheet name="View list of room" sheetId="27" r:id="rId11"/>
-    <sheet name="Add room" sheetId="23" r:id="rId12"/>
-    <sheet name="Update room" sheetId="24" r:id="rId13"/>
-    <sheet name="Delete room" sheetId="25" r:id="rId14"/>
-    <sheet name="Booking accommodation" sheetId="19" r:id="rId15"/>
-    <sheet name="Report" sheetId="28" r:id="rId16"/>
-    <sheet name="Acceptance" sheetId="29" r:id="rId17"/>
-    <sheet name="View list of reports" sheetId="30" r:id="rId18"/>
-    <sheet name="Delete account" sheetId="31" r:id="rId19"/>
-    <sheet name="Delete accommodation" sheetId="32" r:id="rId20"/>
+    <sheet name="Login for admin" sheetId="34" r:id="rId2"/>
+    <sheet name="Update Information" sheetId="16" r:id="rId3"/>
+    <sheet name="Login" sheetId="12" r:id="rId4"/>
+    <sheet name="Logout" sheetId="11" r:id="rId5"/>
+    <sheet name="View accomodation" sheetId="10" r:id="rId6"/>
+    <sheet name="Search" sheetId="33" r:id="rId7"/>
+    <sheet name="View list of zone" sheetId="26" r:id="rId8"/>
+    <sheet name="Add zone" sheetId="20" r:id="rId9"/>
+    <sheet name="Update zone" sheetId="21" r:id="rId10"/>
+    <sheet name="Delete zone" sheetId="22" r:id="rId11"/>
+    <sheet name="View list of room" sheetId="27" r:id="rId12"/>
+    <sheet name="Add room" sheetId="23" r:id="rId13"/>
+    <sheet name="Update room" sheetId="24" r:id="rId14"/>
+    <sheet name="Delete room" sheetId="25" r:id="rId15"/>
+    <sheet name="Booking accommodation" sheetId="19" r:id="rId16"/>
+    <sheet name="Report" sheetId="28" r:id="rId17"/>
+    <sheet name="Acceptance" sheetId="29" r:id="rId18"/>
+    <sheet name="Manage reports" sheetId="30" r:id="rId19"/>
+    <sheet name="Manage accounts for admin" sheetId="31" r:id="rId20"/>
+    <sheet name="Manage accommodations for admin" sheetId="32" r:id="rId21"/>
+    <sheet name="Statistical" sheetId="35" r:id="rId22"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="529">
   <si>
     <t>Test case id</t>
   </si>
@@ -90,9 +92,6 @@
   </si>
   <si>
     <t>Log-out from the system and return to the home page.</t>
-  </si>
-  <si>
-    <t>[Log-in]</t>
   </si>
   <si>
     <t>Do not enter email on the email field</t>
@@ -394,9 +393,6 @@
     <t>1) Click on "Thêm khu"
 2) Input valid information for textboxes
 3) Click on "Lưu" button</t>
-  </si>
-  <si>
-    <t>1) Click on "Quản lí khu"</t>
   </si>
   <si>
     <t>1) Click on button in "Chi tiết" columm of any zone.</t>
@@ -1394,9 +1390,6 @@
     <t>Module Name: Acceptance</t>
   </si>
   <si>
-    <t>Module Name: View list of reports</t>
-  </si>
-  <si>
     <t>Module Name: Delete account</t>
   </si>
   <si>
@@ -1410,12 +1403,6 @@
   </si>
   <si>
     <t>Test Execution date:  23/09/2018</t>
-  </si>
-  <si>
-    <t>Test Designed date: 24/09/2018</t>
-  </si>
-  <si>
-    <t>Test Execution date:  24/09/2018</t>
   </si>
   <si>
     <t>TC_BR01 and 
@@ -1942,43 +1929,155 @@
     <t>Update without name.</t>
   </si>
   <si>
-    <t>1) Click into "Thông tin cá nhân" button
+    <t>Update with invalid password</t>
+  </si>
+  <si>
+    <t>"Mật khẩu": 'abc'</t>
+  </si>
+  <si>
+    <t>The screen displays "Vui lòng kiểm tra lại mật khẩu".</t>
+  </si>
+  <si>
+    <t>Module Name: Login for admin</t>
+  </si>
+  <si>
+    <t>TC_LFA01</t>
+  </si>
+  <si>
+    <t>Login with true information</t>
+  </si>
+  <si>
+    <t>The admin account must existed in database</t>
+  </si>
+  <si>
+    <t>1) "Tên": 'halanhuynh@gmail.com'
+2) "Mật khẩu": '1234abcd'</t>
+  </si>
+  <si>
+    <t>The screen displays "Đăng nhập thành công" box and the browser to view page for admin.</t>
+  </si>
+  <si>
+    <t>The browser to view page for admin.</t>
+  </si>
+  <si>
+    <t>TC_LFA02</t>
+  </si>
+  <si>
+    <t>Login with admin
+account didn't existed</t>
+  </si>
+  <si>
+    <t>1) "Tên": 'abcd@gmail.com'
+2) "Mật khẩu": '1234abcd'</t>
+  </si>
+  <si>
+    <t>1) Open browser 
+2) Type the link: 
+3) Input all valid information for the boxes
+4) Click on "Đăng nhập" button</t>
+  </si>
+  <si>
+    <t>The screen displays "Tên hoặc mật khẩu không đúng"</t>
+  </si>
+  <si>
+    <t>TC_LFA03</t>
+  </si>
+  <si>
+    <t>Login with false name</t>
+  </si>
+  <si>
+    <t>1) "Tên": 'halanhuyn@gmail.com'
+2) "Mật khẩu": '1234abcd'</t>
+  </si>
+  <si>
+    <t>TC_LFA04</t>
+  </si>
+  <si>
+    <t>Login with false password</t>
+  </si>
+  <si>
+    <t>1) "Tên": 'halanhuynh@gmail.com'
+2) "Mật khẩu": '1234acd'</t>
+  </si>
+  <si>
+    <t>TC_LFA05</t>
+  </si>
+  <si>
+    <t>Login with invalid name</t>
+  </si>
+  <si>
+    <t>1) "Tên": 'halanhuyngmail.com'
+2) "Mật khẩu": '1234abcd'</t>
+  </si>
+  <si>
+    <t>The screen displays "Tên đăng nhập thiếu @"</t>
+  </si>
+  <si>
+    <t>TC_LFA06</t>
+  </si>
+  <si>
+    <t>1) "Tên": 'halanhu(yn@gmail.com'
+2) "Mật khẩu": '1234abcd'</t>
+  </si>
+  <si>
+    <t>The screen displays "Tên đăng nhập không được chứa '('"</t>
+  </si>
+  <si>
+    <t>The screen displays "Tên đăng nhập thiếu '@'"</t>
+  </si>
+  <si>
+    <t>Module Name: Manage reports</t>
+  </si>
+  <si>
+    <t>TC_MR01</t>
+  </si>
+  <si>
+    <t>View exactly informaiton</t>
+  </si>
+  <si>
+    <t>TC_REPORT01 and TC_LFA01</t>
+  </si>
+  <si>
+    <t>1) Click on "Quản lí báo cáo" item</t>
+  </si>
+  <si>
+    <t>1) Click into "Thông tin cá nhân" item
 2) Enter information for "Tên bạn" box
 3) Click on "Lưu" button</t>
   </si>
   <si>
-    <t>1) Click into "Thông tin cá nhân" button
+    <t>1) Click into "Thông tin cá nhân" item
 2) Enter information for "Số điện thoại" box
 3) Click on "Lưu" button</t>
   </si>
   <si>
-    <t>1) Click into "Thông tin cá nhân" button
+    <t>1) Click into "Thông tin cá nhân" item
 2) Enter information for "Mật khẩu" box
 3) Click on "Lưu" button</t>
   </si>
   <si>
-    <t>1) Click into "Thông tin cá nhân" button
+    <t>1) Click into "Thông tin cá nhân" item
 2) Delete phone number in "Số điện thoại" box
 3) Click on "Lưu" button</t>
   </si>
   <si>
-    <t>1) Click into "Thông tin cá nhân" button
+    <t>1) Click into "Thông tin cá nhân" item
 2) Delete name in "Tên bạn" box
 3) Click on "Lưu" button</t>
   </si>
   <si>
-    <t>Update with invalid password</t>
-  </si>
-  <si>
-    <t>"Mật khẩu": 'abc'</t>
-  </si>
-  <si>
-    <t>1) Click into "Thông tin cá nhân" button
+    <t>1) Click into "Thông tin cá nhân" item
 2) Delete name in "Mật khẩu" box
 3) Click on "Lưu" button</t>
   </si>
   <si>
-    <t>The screen displays "Vui lòng kiểm tra lại mật khẩu".</t>
+    <t>Click on "Thoát" button</t>
+  </si>
+  <si>
+    <t>1) Click on "Quản lí khu" item</t>
+  </si>
+  <si>
+    <t>View list of zone</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2242,11 +2341,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2327,9 +2478,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2447,6 +2595,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2504,13 +2670,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2795,8 +2985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD26"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2812,76 +3002,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="74"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="78" t="s">
-        <v>353</v>
-      </c>
-      <c r="E2" s="78"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="83" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2" s="83"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="76" t="s">
-        <v>354</v>
-      </c>
-      <c r="E3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="81" t="s">
+        <v>351</v>
+      </c>
+      <c r="E3" s="81"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:9" s="32" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+    <row r="5" spans="1:9" s="31" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
@@ -2902,558 +3092,558 @@
         <v>8</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="41" t="s">
-        <v>370</v>
+      <c r="I9" s="40" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="G20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="41" t="s">
-        <v>370</v>
+      <c r="I22" s="40" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="41" t="s">
-        <v>463</v>
+      <c r="I23" s="40" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="41" t="s">
-        <v>463</v>
+      <c r="I24" s="40" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3473,6 +3663,343 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="79"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="83"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="77"/>
+      <c r="B3" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="81"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:10" s="77" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="84"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+    </row>
+    <row r="6" spans="1:10" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="12" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -3493,61 +4020,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="74"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="78"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="83"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="81"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -3573,89 +4100,89 @@
       <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="40" t="s">
-        <v>31</v>
+      <c r="I6" s="39" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>115</v>
+        <v>135</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>113</v>
       </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="H7" s="41" t="s">
+      <c r="E7" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="H7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="41" t="s">
-        <v>32</v>
+      <c r="I7" s="40" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>115</v>
+        <v>137</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>113</v>
       </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>386</v>
+      <c r="E8" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>381</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>274</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>274</v>
-      </c>
-      <c r="H9" s="41" t="s">
+      <c r="F9" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="H9" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="41" t="s">
-        <v>40</v>
+      <c r="I9" s="40" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3675,7 +4202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -3696,61 +4223,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="74"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="78"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="79" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="83"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="81"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -3776,559 +4303,33 @@
       <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="40" t="s">
-        <v>31</v>
+      <c r="I6" s="39" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:E4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
-  <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="54.140625" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>177</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>185</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>189</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="G18" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="H18" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="48" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>196</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="H19" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>225</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>370</v>
+      <c r="I7" s="39" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4348,6 +4349,532 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="54.140625" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="79"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="77"/>
+      <c r="B2" s="79" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="83"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="77"/>
+      <c r="B3" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="81"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="12" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -4369,61 +4896,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="74"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="78"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="83"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="81"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -4449,356 +4976,356 @@
       <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="40" t="s">
-        <v>31</v>
+      <c r="I6" s="39" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>216</v>
-      </c>
       <c r="F7" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="40" t="s">
-        <v>32</v>
+      <c r="I7" s="39" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="B8" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>219</v>
-      </c>
       <c r="G8" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="H8" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="H8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="42" t="s">
-        <v>40</v>
+      <c r="I8" s="41" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>224</v>
-      </c>
       <c r="E9" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="42" t="s">
-        <v>40</v>
+      <c r="I9" s="41" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>231</v>
+        <v>233</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>229</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="H10" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="H10" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="42" t="s">
-        <v>40</v>
+      <c r="I10" s="41" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>237</v>
+        <v>234</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>235</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="H11" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="H11" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="43" t="s">
-        <v>40</v>
+      <c r="I11" s="42" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>239</v>
+        <v>236</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>237</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="H12" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="H12" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="43" t="s">
-        <v>32</v>
+      <c r="I12" s="42" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>240</v>
+        <v>228</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>238</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H13" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="H13" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="43" t="s">
-        <v>32</v>
+      <c r="I13" s="42" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>246</v>
+        <v>233</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>244</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H14" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="43" t="s">
-        <v>40</v>
+      <c r="I14" s="42" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>247</v>
+        <v>236</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>245</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H15" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="43" t="s">
-        <v>40</v>
+      <c r="I15" s="42" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>248</v>
+        <v>236</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>246</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="H16" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="43" t="s">
-        <v>40</v>
+      <c r="I16" s="42" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>249</v>
+        <v>228</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>247</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="H17" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="H17" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="43" t="s">
-        <v>370</v>
+      <c r="I17" s="42" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>259</v>
+        <v>256</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>257</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="H18" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="H18" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="43" t="s">
-        <v>370</v>
+      <c r="I18" s="42" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -4817,7 +5344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -4837,57 +5364,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="74"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="78"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="83"/>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="81"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
     </row>
-    <row r="5" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -4914,61 +5441,61 @@
         <v>8</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>147</v>
+        <v>259</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>145</v>
       </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="H7" s="41" t="s">
+      <c r="E7" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="H7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="41" t="s">
-        <v>32</v>
+      <c r="I7" s="40" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>147</v>
+        <v>141</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>145</v>
       </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>274</v>
-      </c>
-      <c r="H8" s="41" t="s">
+      <c r="E8" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="H8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="41" t="s">
-        <v>40</v>
+      <c r="I8" s="40" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4984,7 +5511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
@@ -5005,71 +5532,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="74"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="78"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="79" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="83"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="81"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
+    <row r="5" spans="1:10" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="93"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -5097,27 +5624,27 @@
         <v>8</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="3"/>
@@ -5125,80 +5652,80 @@
     </row>
     <row r="8" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>296</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>300</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -5206,22 +5733,22 @@
     </row>
     <row r="11" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -5229,22 +5756,22 @@
     </row>
     <row r="12" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="3"/>
@@ -5252,22 +5779,22 @@
     </row>
     <row r="13" spans="1:10" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="3"/>
@@ -5275,51 +5802,51 @@
     </row>
     <row r="14" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>323</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>324</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -5327,22 +5854,22 @@
     </row>
     <row r="16" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="E16" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
@@ -5350,22 +5877,22 @@
     </row>
     <row r="17" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
@@ -5373,22 +5900,22 @@
     </row>
     <row r="18" spans="1:9" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="E18" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
@@ -5410,7 +5937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -5430,72 +5957,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="74"/>
+      <c r="F1" s="79"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74" t="s">
-        <v>347</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="78"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="79" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="83"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="81"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
+    <row r="5" spans="1:10" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="93"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -5523,88 +6050,88 @@
         <v>8</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -5623,11 +6150,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -5644,57 +6171,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="74"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74" t="s">
-        <v>348</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="78"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="79" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="83"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="81"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
@@ -5709,189 +6236,189 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>352</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>367</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>368</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>368</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="63" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>355</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>370</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="64" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
-        <v>352</v>
-      </c>
-      <c r="B7" s="67" t="s">
+    <row r="9" spans="1:9" s="63" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>369</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="s">
         <v>358</v>
       </c>
-      <c r="C7" s="67" t="s">
-        <v>357</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>374</v>
-      </c>
-      <c r="E7" s="67" t="s">
-        <v>372</v>
-      </c>
-      <c r="F7" s="67" t="s">
-        <v>373</v>
-      </c>
-      <c r="G7" s="67" t="s">
-        <v>373</v>
-      </c>
-      <c r="H7" s="67" t="s">
+      <c r="B10" s="64" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>369</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>369</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="H10" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="67" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="64" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>359</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="D8" s="65" t="s">
+      <c r="I10" s="64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" s="64" t="s">
         <v>375</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="C11" s="64" t="s">
         <v>376</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="D11" s="64" t="s">
+        <v>369</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="64" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
-        <v>361</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>362</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>374</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="64" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
-        <v>363</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>364</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>287</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>374</v>
-      </c>
-      <c r="E10" s="65" t="s">
-        <v>374</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="H10" s="65" t="s">
+      <c r="G11" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="H11" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="65" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="64" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>380</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>381</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>374</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="H11" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="65" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="I11" s="64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:A4"/>
@@ -5908,12 +6435,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5929,57 +6456,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="74"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74" t="s">
-        <v>349</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="78"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="79" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="83"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="81"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
@@ -5993,33 +6520,50 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+    <row r="6" spans="1:9" s="59" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="59" t="s">
-        <v>31</v>
+      <c r="I6" s="58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>517</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>518</v>
+      </c>
+      <c r="D7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -6037,7 +6581,310 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="79"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="77"/>
+      <c r="B2" s="79" t="s">
+        <v>489</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="83"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="77"/>
+      <c r="B3" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="81"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" s="59" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="98" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>491</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>497</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>498</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>500</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>500</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>502</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>503</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>500</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>500</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>505</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>506</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>500</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>500</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>508</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>509</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>514</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>510</v>
+      </c>
+      <c r="H11" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="99" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>508</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>512</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>513</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>513</v>
+      </c>
+      <c r="H12" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="99" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -6058,57 +6905,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="74"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74" t="s">
-        <v>350</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="78"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="79" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="83"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="81"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
@@ -6122,33 +6969,33 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+    <row r="6" spans="1:9" s="59" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="59" t="s">
-        <v>31</v>
+      <c r="I6" s="58" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -6166,12 +7013,155 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="79"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="77"/>
+      <c r="B2" s="79" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="83"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="77"/>
+      <c r="B3" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="81"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" s="59" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6188,57 +7178,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="74"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74" t="s">
-        <v>346</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="78"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="79" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="83"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="81"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
@@ -6277,348 +7267,354 @@
       <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="93" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="I6" s="39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="76" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C7" s="91" t="s">
-        <v>208</v>
+        <v>478</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>206</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="92" t="s">
-        <v>40</v>
+      <c r="I7" s="75" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="40" t="s">
-        <v>40</v>
+      <c r="I8" s="39" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="40" t="s">
-        <v>40</v>
+      <c r="I9" s="39" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>429</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="40"/>
+        <v>421</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:9" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>438</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="41" t="s">
-        <v>40</v>
+      <c r="I11" s="40" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="41" t="s">
-        <v>40</v>
+      <c r="I12" s="40" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="41" t="s">
-        <v>463</v>
+      <c r="I13" s="40" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:9" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="41" t="s">
-        <v>463</v>
+      <c r="I14" s="40" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:9" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:9" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:9" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="39" t="s">
+        <v>482</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>486</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D18" s="39" t="s">
         <v>487</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>496</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>497</v>
-      </c>
       <c r="E18" s="8" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="H18" s="40" t="s">
+        <v>488</v>
+      </c>
+      <c r="H18" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="40" t="s">
-        <v>40</v>
+      <c r="I18" s="39" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -6637,397 +7633,226 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView topLeftCell="A10" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="105"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="77"/>
+      <c r="B2" s="102" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="77"/>
+      <c r="B3" s="100" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74" t="s">
-        <v>351</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="78" t="s">
+      <c r="C3" s="101"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+    </row>
+    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="58" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="58" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="59" t="s">
-        <v>31</v>
+      <c r="G7" s="48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="99" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="5">
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74" t="s">
-        <v>268</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="78" t="s">
-        <v>355</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="76" t="s">
-        <v>356</v>
-      </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-    </row>
-    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="99" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="99" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:E4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7044,71 +7869,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="74"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="78"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="79" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="83"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="81"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="72" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+    <row r="5" spans="1:10" s="77" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="84"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -7156,10 +7981,14 @@
         <v>16</v>
       </c>
       <c r="F7" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="H7" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="I7" s="15" t="s">
         <v>10</v>
       </c>
@@ -7181,12 +8010,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7202,81 +8031,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="56"/>
+      <c r="F1" s="55"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="81" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="54" t="s">
-        <v>353</v>
+      <c r="A2" s="77"/>
+      <c r="B2" s="86" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="53" t="s">
+        <v>350</v>
       </c>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="55" t="s">
-        <v>354</v>
+      <c r="A3" s="77"/>
+      <c r="B3" s="87" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="54" t="s">
+        <v>351</v>
       </c>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="72" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-    </row>
-    <row r="6" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+    <row r="5" spans="1:10" s="77" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="84"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+    </row>
+    <row r="6" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="84"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -7304,61 +8133,65 @@
         <v>8</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>369</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="24" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>287</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>369</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="41" t="s">
-        <v>370</v>
+      <c r="I9" s="40" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -7425,12 +8258,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7445,81 +8278,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="83" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="56"/>
+      <c r="F1" s="55"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="84" t="s">
-        <v>389</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="69" t="s">
-        <v>353</v>
+      <c r="A2" s="77"/>
+      <c r="B2" s="89" t="s">
+        <v>384</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="68" t="s">
+        <v>350</v>
       </c>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="70" t="s">
-        <v>354</v>
+      <c r="A3" s="77"/>
+      <c r="B3" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="69" t="s">
+        <v>351</v>
       </c>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="72" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-    </row>
-    <row r="6" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+    <row r="5" spans="1:10" s="77" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="84"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+    </row>
+    <row r="6" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="84"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -7547,210 +8380,210 @@
         <v>8</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="E8" s="44" t="s">
         <v>388</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>392</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>390</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>391</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>393</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>409</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>394</v>
-      </c>
-      <c r="H8" s="45" t="s">
+      <c r="F8" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="H8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="45" t="s">
-        <v>32</v>
+      <c r="I8" s="44" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>395</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>396</v>
-      </c>
-      <c r="C9" s="45" t="s">
         <v>390</v>
       </c>
-      <c r="D9" s="45" t="s">
-        <v>402</v>
-      </c>
-      <c r="E9" s="45" t="s">
+      <c r="B9" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="D9" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="F9" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="H9" s="45" t="s">
+      <c r="E9" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="H9" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="45" t="s">
-        <v>40</v>
+      <c r="I9" s="44" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>395</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="F10" s="44" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>400</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>390</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>401</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>403</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>404</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>404</v>
-      </c>
-      <c r="H10" s="45" t="s">
+      <c r="G10" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="H10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="45" t="s">
-        <v>40</v>
+      <c r="I10" s="44" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>400</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>401</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>402</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>403</v>
+      </c>
+      <c r="F11" s="44" t="s">
         <v>405</v>
       </c>
-      <c r="B11" s="45" t="s">
-        <v>406</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>390</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>407</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>410</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>394</v>
-      </c>
-      <c r="H11" s="71" t="s">
+      <c r="G11" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="H11" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="71" t="s">
-        <v>32</v>
+      <c r="I11" s="70" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>411</v>
-      </c>
-      <c r="B12" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="E12" s="44" t="s">
         <v>412</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>390</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>413</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>417</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>409</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>394</v>
-      </c>
-      <c r="H12" s="71" t="s">
+      <c r="F12" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="H12" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="71" t="s">
-        <v>32</v>
+      <c r="I12" s="70" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>414</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>415</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>390</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>416</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>418</v>
-      </c>
-      <c r="F13" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="G13" s="45" t="s">
-        <v>394</v>
-      </c>
-      <c r="H13" s="71" t="s">
+      <c r="B13" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="H13" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="71" t="s">
-        <v>32</v>
+      <c r="I13" s="70" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="41" t="s">
-        <v>370</v>
+      <c r="I14" s="40" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -7766,12 +8599,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7786,62 +8619,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="74"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74" t="s">
-        <v>270</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="78"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="79" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="83"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="81"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
       </c>
@@ -7866,33 +8699,37 @@
       <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="106" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="12" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>528</v>
+      </c>
       <c r="C7" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>369</v>
+      </c>
       <c r="E7" s="8" t="s">
-        <v>93</v>
+        <v>527</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>40</v>
+      <c r="I7" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -7908,15 +8745,16 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7931,61 +8769,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="74"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="78"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="79" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="83"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="81"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -8011,211 +8849,211 @@
       <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="40" t="s">
-        <v>31</v>
+      <c r="I6" s="39" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="F7" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="40" t="s">
-        <v>370</v>
+      <c r="I7" s="39" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>95</v>
+        <v>120</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>93</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>98</v>
+        <v>90</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>96</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="42" t="s">
-        <v>40</v>
+      <c r="I8" s="41" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="E9" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="42" t="s">
-        <v>40</v>
+      <c r="I9" s="41" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>101</v>
+        <v>122</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>99</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="43" t="s">
-        <v>40</v>
+      <c r="I10" s="42" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="F11" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="43" t="s">
-        <v>40</v>
+      <c r="I11" s="42" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>106</v>
+        <v>124</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>104</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H12" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="43" t="s">
-        <v>40</v>
+      <c r="I12" s="42" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="F13" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="H13" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="H13" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="42" t="s">
-        <v>32</v>
+      <c r="I13" s="41" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -8232,341 +9070,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="74" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-    </row>
-    <row r="5" spans="1:10" s="72" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-    </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="12" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Document/7.Testing/Test_Case.xlsx
+++ b/Document/7.Testing/Test_Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="16" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="3" r:id="rId1"/>
@@ -26,11 +26,11 @@
     <sheet name="Report" sheetId="28" r:id="rId17"/>
     <sheet name="Acceptance" sheetId="29" r:id="rId18"/>
     <sheet name="Manage reports" sheetId="30" r:id="rId19"/>
-    <sheet name="Manage accounts for admin" sheetId="31" r:id="rId20"/>
+    <sheet name="Manage users" sheetId="31" r:id="rId20"/>
     <sheet name="Manage accommodations for admin" sheetId="32" r:id="rId21"/>
     <sheet name="Statistical" sheetId="35" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="608">
   <si>
     <t>Test case id</t>
   </si>
@@ -1390,12 +1390,6 @@
     <t>Module Name: Acceptance</t>
   </si>
   <si>
-    <t>Module Name: Delete account</t>
-  </si>
-  <si>
-    <t>Module Name: Delete accommodation</t>
-  </si>
-  <si>
     <t>TC_A01</t>
   </si>
   <si>
@@ -1459,20 +1453,6 @@
   </si>
   <si>
     <t>None</t>
-  </si>
-  <si>
-    <t>"Giá": '1000000'</t>
-  </si>
-  <si>
-    <t>1) Enter the price for that contract
-2) Click on "Đồng ý" button</t>
-  </si>
-  <si>
-    <t>1) Click on "Từ chối" 
-button</t>
-  </si>
-  <si>
-    <t>Screen displays "Bạn đã cho thuê chỗ ở thành công". The status of that accommodation is set at "Đã thuê". Database save that contract information with the price landlord entered</t>
   </si>
   <si>
     <t>Screen displays "Bạn đã hủy hợp đồng này"</t>
@@ -2032,13 +2012,7 @@
     <t>TC_MR01</t>
   </si>
   <si>
-    <t>View exactly informaiton</t>
-  </si>
-  <si>
     <t>TC_REPORT01 and TC_LFA01</t>
-  </si>
-  <si>
-    <t>1) Click on "Quản lí báo cáo" item</t>
   </si>
   <si>
     <t>1) Click into "Thông tin cá nhân" item
@@ -2078,13 +2052,282 @@
   </si>
   <si>
     <t>View list of zone</t>
+  </si>
+  <si>
+    <t>Click on "Quản lí báo cáo" item</t>
+  </si>
+  <si>
+    <t>View list of user reports</t>
+  </si>
+  <si>
+    <t>TC_MR02</t>
+  </si>
+  <si>
+    <t>View detail of a report</t>
+  </si>
+  <si>
+    <t>View  all user reports</t>
+  </si>
+  <si>
+    <t>Error 404</t>
+  </si>
+  <si>
+    <t>View axactly information of report</t>
+  </si>
+  <si>
+    <t>TC_MR03</t>
+  </si>
+  <si>
+    <t>Delete a report</t>
+  </si>
+  <si>
+    <t>Click on button in "Xóa" columm</t>
+  </si>
+  <si>
+    <t>The screen displays "Đã xóa báo cáo" and the browser to view list of reports without the report was deleted</t>
+  </si>
+  <si>
+    <t>The browser to view list of reports without no change</t>
+  </si>
+  <si>
+    <t>TC_MR04</t>
+  </si>
+  <si>
+    <t>"Trang trước" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on "Trang trước' button  </t>
+  </si>
+  <si>
+    <t>TC_MR05</t>
+  </si>
+  <si>
+    <t>"Trang sau" button</t>
+  </si>
+  <si>
+    <t>The browser to view previous page of list without includes the reports wich have in current page. If the current page is the first page or the list has one page, the browser to view that page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on "Trang sau' button  </t>
+  </si>
+  <si>
+    <t>The browser to view next page of list without includes the reports wich have in current page. If the current page is the last page or the list has one page, the browser to view that page.</t>
+  </si>
+  <si>
+    <t>Module Name: Manage users</t>
+  </si>
+  <si>
+    <t>TC_MU01</t>
+  </si>
+  <si>
+    <t>TC_MAFA01</t>
+  </si>
+  <si>
+    <t>TC_MAFA02</t>
+  </si>
+  <si>
+    <t>View list of accommodations</t>
+  </si>
+  <si>
+    <t>View detail of a accommodations</t>
+  </si>
+  <si>
+    <t>TC_AZ01 and TC_LFA01</t>
+  </si>
+  <si>
+    <t>Click on "Quản lí Cho thuê" item</t>
+  </si>
+  <si>
+    <t>View  all zones</t>
+  </si>
+  <si>
+    <t>TC_MAFA03</t>
+  </si>
+  <si>
+    <t>View axactly information of zone</t>
+  </si>
+  <si>
+    <t>Delete a zone</t>
+  </si>
+  <si>
+    <t>The screen displays "Đã xóa báo cáo" and the browser to view list of zones without the zone was deleted</t>
+  </si>
+  <si>
+    <t>The browser to view list of zones without no change</t>
+  </si>
+  <si>
+    <t>TC_MAFA04</t>
+  </si>
+  <si>
+    <t>The browser to view previous page of list without includes the zones wich have in current page. If the current page is the first page or the list has one page, the browser to view that page.</t>
+  </si>
+  <si>
+    <t>The browser to view next page of list without includes the zones wich have in current page. If the current page is the last page or the list has one page, the browser to view that page.</t>
+  </si>
+  <si>
+    <t>TC_MR06</t>
+  </si>
+  <si>
+    <t>There are not any report</t>
+  </si>
+  <si>
+    <t>If there are not any report in that time, the screen displays "Chưa có báo cáo nào".</t>
+  </si>
+  <si>
+    <t>TC_MAFA05</t>
+  </si>
+  <si>
+    <t>TC_MAFA06</t>
+  </si>
+  <si>
+    <t>There are not any zones</t>
+  </si>
+  <si>
+    <t>If there are not any zones in that time, the screen displays "Chưa có khu nào".</t>
+  </si>
+  <si>
+    <t>Module Name: Manage accommodations for admin</t>
+  </si>
+  <si>
+    <t>TC_St01</t>
+  </si>
+  <si>
+    <t>The room's chart and user's chart</t>
+  </si>
+  <si>
+    <t>Click on "Thống kê" item</t>
+  </si>
+  <si>
+    <t>The browser to view exactly charts base on data</t>
+  </si>
+  <si>
+    <t>"Khu" item</t>
+  </si>
+  <si>
+    <t>Click on "Khu" item</t>
+  </si>
+  <si>
+    <t>The browser to view exactly sum of zones. 
+After click on "Khu" item, the browser to  continue at TC_MAFA01.</t>
+  </si>
+  <si>
+    <t>Module Name: Statistical</t>
+  </si>
+  <si>
+    <t>"Báo cáo" item</t>
+  </si>
+  <si>
+    <t>Click on "Báo cáo" item</t>
+  </si>
+  <si>
+    <t>The browser to view exactly sum of reports. 
+After click on "Báo cáo" item, the browser to  continue at TC_MR01.</t>
+  </si>
+  <si>
+    <t>TC_St02</t>
+  </si>
+  <si>
+    <t>TC_St03</t>
+  </si>
+  <si>
+    <t>View list of user users</t>
+  </si>
+  <si>
+    <t>TC_R01 and TC_LFA01</t>
+  </si>
+  <si>
+    <t>Click on "Quản lí người dùng" item</t>
+  </si>
+  <si>
+    <t>View  all user users</t>
+  </si>
+  <si>
+    <t>View detail of a users</t>
+  </si>
+  <si>
+    <t>View axactly information of user</t>
+  </si>
+  <si>
+    <t>TC_MU02</t>
+  </si>
+  <si>
+    <t>TC_MU03</t>
+  </si>
+  <si>
+    <t>Delete a user</t>
+  </si>
+  <si>
+    <t>The screen displays "Đã xóa tài khoản" and the browser to view list of users without the user was deleted</t>
+  </si>
+  <si>
+    <t>The browser to view list of users without no change</t>
+  </si>
+  <si>
+    <t>TC_MU04</t>
+  </si>
+  <si>
+    <t>The browser to view previous page of list without includes the users wich have in current page. If the current page is the first page or the list has one page, the browser to view that page.</t>
+  </si>
+  <si>
+    <t>The browser to view next page of list without includes the users wich have in current page. If the current page is the last page or the list has one page, the browser to view that page.</t>
+  </si>
+  <si>
+    <t>TC_MU05</t>
+  </si>
+  <si>
+    <t>TC_MU06</t>
+  </si>
+  <si>
+    <t>If there are not any report in that time, the screen displays "Chưa có người dùng nào".</t>
+  </si>
+  <si>
+    <t>"Người dùng" 
+item</t>
+  </si>
+  <si>
+    <t>Click on "Người dùng" item</t>
+  </si>
+  <si>
+    <t>The browser to view exactly sum of reports. 
+After click on "Người dùng" item, the browser to  continue at TC_MU01.</t>
+  </si>
+  <si>
+    <t>The status of that accommodation is set at "Đã thuê". Database save that contract information with the price landlord entered</t>
+  </si>
+  <si>
+    <t>TC_A06</t>
+  </si>
+  <si>
+    <t>"Kết thúc sớm" button</t>
+  </si>
+  <si>
+    <t>Click on "Từ chối" 
+button</t>
+  </si>
+  <si>
+    <t>1) "Giá": '1000000'
+2) "Ngày bắt đầu": '05/12/2018'
+3) "Ngày kết thúc": '05/3/2019'</t>
+  </si>
+  <si>
+    <t>1) Enter the infomation for that contract
+2) Click on "Đồng ý" button</t>
+  </si>
+  <si>
+    <t>Click on "Kết thúc sớm" button</t>
+  </si>
+  <si>
+    <t>Screen displays "Bạn đã cho thuê chỗ ở thành công". The status of that accommodation is set at "Đã thuê". Database save that contract information with the price  and date landlord entered</t>
+  </si>
+  <si>
+    <t>The status of that accommodation is set at "Còn trống"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2192,6 +2435,13 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2397,7 +2647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2613,6 +2863,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2632,6 +2897,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2670,38 +2953,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3002,57 +3262,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="79" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="79"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="79" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="83" t="s">
-        <v>350</v>
-      </c>
-      <c r="E2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="88" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="88"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="81" t="s">
-        <v>351</v>
-      </c>
-      <c r="E3" s="81"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="86" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3" s="86"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
@@ -3106,7 +3366,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>35</v>
@@ -3121,7 +3381,7 @@
         <v>11</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3135,13 +3395,13 @@
         <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>200</v>
@@ -3150,7 +3410,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3164,16 +3424,16 @@
         <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>10</v>
@@ -3193,16 +3453,16 @@
         <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>10</v>
@@ -3222,16 +3482,16 @@
         <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>10</v>
@@ -3251,16 +3511,16 @@
         <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>10</v>
@@ -3280,16 +3540,16 @@
         <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -3309,16 +3569,16 @@
         <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
@@ -3338,7 +3598,7 @@
         <v>28</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>54</v>
@@ -3367,7 +3627,7 @@
         <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>57</v>
@@ -3396,7 +3656,7 @@
         <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>58</v>
@@ -3425,7 +3685,7 @@
         <v>28</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>60</v>
@@ -3454,7 +3714,7 @@
         <v>28</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>62</v>
@@ -3483,13 +3743,13 @@
         <v>28</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>200</v>
@@ -3503,22 +3763,22 @@
     </row>
     <row r="22" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>200</v>
@@ -3527,88 +3787,88 @@
         <v>11</v>
       </c>
       <c r="I22" s="40" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I24" s="40" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>10</v>
@@ -3619,25 +3879,25 @@
     </row>
     <row r="26" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>10</v>
@@ -3686,70 +3946,70 @@
       <c r="A1" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="79" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="79"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="84" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="83" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="83"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="77" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
+    <row r="5" spans="1:10" s="82" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="95"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
     </row>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
@@ -3797,10 +4057,10 @@
         <v>133</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>10</v>
@@ -4020,61 +4280,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="79" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="79"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="79" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="83" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="83"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -4149,7 +4409,7 @@
         <v>271</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>11</v>
@@ -4223,61 +4483,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="79" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="79"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="79" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="84" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="83" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="83"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -4368,61 +4628,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="79" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="79"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="79" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="84" t="s">
         <v>277</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="83" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="83"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -4478,7 +4738,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4797,7 +5057,7 @@
         <v>11</v>
       </c>
       <c r="I18" s="47" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4855,7 +5115,7 @@
         <v>11</v>
       </c>
       <c r="I20" s="47" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -4896,61 +5156,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="79" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="79"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="79" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="83" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="83"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -5296,7 +5556,7 @@
         <v>11</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5325,7 +5585,7 @@
         <v>11</v>
       </c>
       <c r="I18" s="42" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -5364,57 +5624,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>67</v>
       </c>
       <c r="B1" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="79"/>
+      <c r="D1" s="84"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
+      <c r="A2" s="82"/>
       <c r="B2" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="83"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="86"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
     </row>
-    <row r="5" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -5515,8 +5775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5532,71 +5792,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="79" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="79"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="79" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="84" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="83" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="83"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
+    <row r="5" spans="1:10" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="104"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -5644,7 +5904,7 @@
         <v>290</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="3"/>
@@ -5957,72 +6217,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="79" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="79"/>
+      <c r="F1" s="84"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="79" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="84" t="s">
         <v>345</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="83" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="81" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="81"/>
+      <c r="F3" s="86"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
+    <row r="5" spans="1:10" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="104"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -6154,8 +6414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6171,57 +6431,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="79" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="79"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="79" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="84" t="s">
         <v>346</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="83" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="83"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
@@ -6266,25 +6526,25 @@
     </row>
     <row r="7" spans="1:9" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E7" s="66" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G7" s="66" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H7" s="66" t="s">
         <v>10</v>
@@ -6295,75 +6555,83 @@
     </row>
     <row r="8" spans="1:9" s="63" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>370</v>
+        <v>347</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>603</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>371</v>
+        <v>604</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="64"/>
+        <v>606</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>11</v>
+      </c>
       <c r="I8" s="64" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="63" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="64" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>372</v>
+        <v>602</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="64"/>
+        <v>368</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>10</v>
+      </c>
       <c r="I9" s="64" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>285</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H10" s="64" t="s">
         <v>10</v>
@@ -6373,35 +6641,63 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
-        <v>366</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>375</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>376</v>
-      </c>
-      <c r="D11" s="64" t="s">
+      <c r="A11" s="109" t="s">
+        <v>364</v>
+      </c>
+      <c r="B11" s="109" t="s">
         <v>369</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="C11" s="109" t="s">
+        <v>370</v>
+      </c>
+      <c r="D11" s="109" t="s">
         <v>367</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="H11" s="64" t="s">
+      <c r="E11" s="110" t="s">
+        <v>365</v>
+      </c>
+      <c r="F11" s="110" t="s">
+        <v>372</v>
+      </c>
+      <c r="G11" s="110" t="s">
+        <v>372</v>
+      </c>
+      <c r="H11" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="109" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" s="64" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
+        <v>600</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>601</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>367</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="H12" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="64" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="13" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -6437,10 +6733,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6448,65 +6744,64 @@
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="7" width="27.140625" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="79" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="79"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="79" t="s">
-        <v>515</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="83" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="84" t="s">
+        <v>509</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="83"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
@@ -6520,50 +6815,207 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:9" s="59" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
+    <row r="6" spans="1:9" s="59" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="79" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>516</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>517</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>518</v>
-      </c>
-      <c r="D7" t="s">
-        <v>369</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>519</v>
+      <c r="A7" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>511</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>521</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>525</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>525</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>524</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="F8" s="107" t="s">
+        <v>527</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>531</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>532</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" s="80" t="s">
+        <v>535</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>538</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>538</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>537</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E11" s="80" t="s">
+        <v>539</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="H11" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="108" t="s">
+        <v>558</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>559</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="D12" s="108" t="s">
+        <v>367</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>521</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>560</v>
+      </c>
+      <c r="G12" s="80" t="s">
+        <v>560</v>
+      </c>
+      <c r="H12" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="80" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -6578,6 +7030,7 @@
     <mergeCell ref="B4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6602,57 +7055,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="79" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="79"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="79" t="s">
-        <v>489</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="83" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="84" t="s">
+        <v>483</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="83"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
@@ -6667,55 +7120,55 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:9" s="59" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="97" t="s">
+      <c r="E6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="97" t="s">
+      <c r="F6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="97" t="s">
+      <c r="G6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="97" t="s">
+      <c r="H6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="98" t="s">
+      <c r="I6" s="79" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D7" s="40" t="s">
+        <v>487</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>493</v>
       </c>
-      <c r="E7" s="40" t="s">
-        <v>499</v>
-      </c>
       <c r="F7" s="40" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H7" s="40" t="s">
         <v>11</v>
@@ -6726,25 +7179,25 @@
     </row>
     <row r="8" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="H8" s="40" t="s">
         <v>10</v>
@@ -6755,25 +7208,25 @@
     </row>
     <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="H9" s="40" t="s">
         <v>10</v>
@@ -6784,25 +7237,25 @@
     </row>
     <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>10</v>
@@ -6813,59 +7266,59 @@
     </row>
     <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B11" s="40" t="s">
+        <v>502</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>503</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>508</v>
       </c>
-      <c r="C11" s="40" t="s">
-        <v>492</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>509</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>499</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>514</v>
-      </c>
       <c r="G11" s="40" t="s">
-        <v>510</v>
-      </c>
-      <c r="H11" s="99" t="s">
+        <v>504</v>
+      </c>
+      <c r="H11" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="99" t="s">
+      <c r="I11" s="80" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>513</v>
-      </c>
-      <c r="H12" s="99" t="s">
+        <v>507</v>
+      </c>
+      <c r="H12" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="99" t="s">
+      <c r="I12" s="80" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6886,10 +7339,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6899,63 +7352,63 @@
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="79" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="79"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="79" t="s">
-        <v>347</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="83" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="84" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="83"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
@@ -6996,6 +7449,180 @@
       </c>
       <c r="I6" s="58" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>579</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>580</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>581</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>582</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>582</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>583</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="F8" s="107" t="s">
+        <v>584</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>588</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>589</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" s="80" t="s">
+        <v>535</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>591</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>591</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>593</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>537</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E11" s="80" t="s">
+        <v>539</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>592</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>592</v>
+      </c>
+      <c r="H11" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>559</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="D12" s="108" t="s">
+        <v>367</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>581</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>595</v>
+      </c>
+      <c r="G12" s="80" t="s">
+        <v>595</v>
+      </c>
+      <c r="H12" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="80" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -7015,10 +7642,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7027,64 +7654,64 @@
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="79" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="79"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="79" t="s">
-        <v>348</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="83" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="84" t="s">
+        <v>565</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="83"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
@@ -7125,6 +7752,180 @@
       </c>
       <c r="I6" s="58" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>547</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>548</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>549</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>549</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="F8" s="107" t="s">
+        <v>551</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>553</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>554</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" s="80" t="s">
+        <v>535</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>537</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E11" s="80" t="s">
+        <v>539</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="H11" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>563</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="D12" s="108" t="s">
+        <v>367</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>548</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>564</v>
+      </c>
+      <c r="G12" s="80" t="s">
+        <v>564</v>
+      </c>
+      <c r="H12" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="80" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -7144,14 +7945,245 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="85"/>
+      <c r="D1" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="84"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="82"/>
+      <c r="B2" s="84" t="s">
+        <v>573</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="88"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="82"/>
+      <c r="B3" s="87" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="86"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" s="59" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>567</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>568</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>572</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>572</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>576</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>576</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>598</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>598</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7178,57 +8210,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="79" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="79"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="79" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="84" t="s">
         <v>344</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="83" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="83"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
@@ -7273,23 +8305,23 @@
     </row>
     <row r="7" spans="1:9" s="76" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C7" s="74" t="s">
         <v>206</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>10</v>
@@ -7300,25 +8332,25 @@
     </row>
     <row r="8" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>10</v>
@@ -7329,25 +8361,25 @@
     </row>
     <row r="9" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>10</v>
@@ -7358,25 +8390,25 @@
     </row>
     <row r="10" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>10</v>
@@ -7387,25 +8419,25 @@
     </row>
     <row r="11" spans="1:9" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>434</v>
-      </c>
       <c r="E11" s="8" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>10</v>
@@ -7416,25 +8448,25 @@
     </row>
     <row r="12" spans="1:9" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>10</v>
@@ -7445,83 +8477,83 @@
     </row>
     <row r="13" spans="1:9" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:9" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:9" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
@@ -7532,25 +8564,25 @@
     </row>
     <row r="16" spans="1:9" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>10</v>
@@ -7561,25 +8593,25 @@
     </row>
     <row r="17" spans="1:9" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>10</v>
@@ -7590,25 +8622,25 @@
     </row>
     <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
+        <v>476</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>480</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B18" s="39" t="s">
-        <v>486</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>487</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>488</v>
-      </c>
       <c r="G18" s="3" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>10</v>
@@ -7652,41 +8684,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="105"/>
+      <c r="C1" s="90"/>
       <c r="D1" s="71"/>
       <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="91" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="103"/>
+      <c r="C2" s="92"/>
       <c r="D2" s="73"/>
       <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="100" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="101"/>
+      <c r="C3" s="94"/>
       <c r="D3" s="72"/>
       <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7869,71 +8901,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="79" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="79"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="79" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="83" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="83"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="77" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
+    <row r="5" spans="1:10" s="82" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="95"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -7981,7 +9013,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>16</v>
@@ -8015,7 +9047,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8031,14 +9063,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
       <c r="E1" s="52" t="s">
         <v>68</v>
       </c>
@@ -8047,65 +9079,65 @@
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="86" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="97" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
       <c r="E2" s="53" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="87" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="98" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="54" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="77" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-    </row>
-    <row r="6" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
+    <row r="5" spans="1:10" s="82" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="95"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+    </row>
+    <row r="6" spans="1:10" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -8147,7 +9179,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>65</v>
@@ -8176,10 +9208,10 @@
         <v>287</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>203</v>
@@ -8191,7 +9223,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -8262,7 +9294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -8278,14 +9310,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="99" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="67" t="s">
         <v>68</v>
       </c>
@@ -8294,65 +9326,65 @@
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="89" t="s">
-        <v>384</v>
-      </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="100" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="68" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="90" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="101" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
       <c r="E3" s="69" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="91" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="77" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-    </row>
-    <row r="6" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
+    <row r="5" spans="1:10" s="82" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="95"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+    </row>
+    <row r="6" spans="1:10" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -8385,25 +9417,25 @@
     </row>
     <row r="8" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>382</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="G8" s="44" t="s">
         <v>383</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>387</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>385</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>386</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>388</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>404</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>389</v>
       </c>
       <c r="H8" s="44" t="s">
         <v>11</v>
@@ -8414,25 +9446,25 @@
     </row>
     <row r="9" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B9" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="D9" s="44" t="s">
         <v>391</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>385</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>397</v>
-      </c>
       <c r="E9" s="44" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H9" s="44" t="s">
         <v>10</v>
@@ -8443,25 +9475,25 @@
     </row>
     <row r="10" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H10" s="44" t="s">
         <v>10</v>
@@ -8472,25 +9504,25 @@
     </row>
     <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H11" s="70" t="s">
         <v>11</v>
@@ -8501,25 +9533,25 @@
     </row>
     <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>401</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>402</v>
+      </c>
+      <c r="E12" s="44" t="s">
         <v>406</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>407</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>385</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>408</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>412</v>
-      </c>
       <c r="F12" s="44" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H12" s="70" t="s">
         <v>11</v>
@@ -8530,25 +9562,25 @@
     </row>
     <row r="13" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H13" s="70" t="s">
         <v>11</v>
@@ -8559,10 +9591,10 @@
     </row>
     <row r="14" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>28</v>
@@ -8574,7 +9606,7 @@
         <v>37</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>200</v>
@@ -8583,7 +9615,7 @@
         <v>11</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -8619,61 +9651,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="79" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="79"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="79" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="83" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="83"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -8699,7 +9731,7 @@
       <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="106" t="s">
+      <c r="I6" s="81" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8708,16 +9740,16 @@
         <v>90</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>262</v>
@@ -8753,7 +9785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -8769,61 +9801,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="79" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="79"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="79" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="84" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="83" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="83"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -8870,16 +9902,16 @@
         <v>91</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">

--- a/Document/7.Testing/Test_Case.xlsx
+++ b/Document/7.Testing/Test_Case.xlsx
@@ -4,24 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="16" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="15" activeTab="16"/>
   </bookViews>
   <sheets>
-    <sheet name="Register" sheetId="3" r:id="rId1"/>
-    <sheet name="Login for admin" sheetId="34" r:id="rId2"/>
-    <sheet name="Update Information" sheetId="16" r:id="rId3"/>
-    <sheet name="Login" sheetId="12" r:id="rId4"/>
-    <sheet name="Logout" sheetId="11" r:id="rId5"/>
-    <sheet name="View accomodation" sheetId="10" r:id="rId6"/>
+    <sheet name="View accomodation" sheetId="10" r:id="rId1"/>
+    <sheet name="Register" sheetId="3" r:id="rId2"/>
+    <sheet name="Login for admin" sheetId="34" r:id="rId3"/>
+    <sheet name="Update Information" sheetId="16" r:id="rId4"/>
+    <sheet name="Login" sheetId="12" r:id="rId5"/>
+    <sheet name="Logout" sheetId="11" r:id="rId6"/>
     <sheet name="Search" sheetId="33" r:id="rId7"/>
-    <sheet name="View list of zone" sheetId="26" r:id="rId8"/>
-    <sheet name="Add zone" sheetId="20" r:id="rId9"/>
-    <sheet name="Update zone" sheetId="21" r:id="rId10"/>
-    <sheet name="Delete zone" sheetId="22" r:id="rId11"/>
-    <sheet name="View list of room" sheetId="27" r:id="rId12"/>
-    <sheet name="Add room" sheetId="23" r:id="rId13"/>
-    <sheet name="Update room" sheetId="24" r:id="rId14"/>
-    <sheet name="Delete room" sheetId="25" r:id="rId15"/>
+    <sheet name="Add zone" sheetId="20" r:id="rId8"/>
+    <sheet name="Update zone" sheetId="21" r:id="rId9"/>
+    <sheet name="Delete zone" sheetId="22" r:id="rId10"/>
+    <sheet name="View list of zone" sheetId="26" r:id="rId11"/>
+    <sheet name="Add room" sheetId="23" r:id="rId12"/>
+    <sheet name="Update room" sheetId="24" r:id="rId13"/>
+    <sheet name="Delete room" sheetId="25" r:id="rId14"/>
+    <sheet name="View list of room" sheetId="27" r:id="rId15"/>
     <sheet name="Booking accommodation" sheetId="19" r:id="rId16"/>
     <sheet name="Report" sheetId="28" r:id="rId17"/>
     <sheet name="Acceptance" sheetId="29" r:id="rId18"/>
@@ -30,7 +30,7 @@
     <sheet name="Manage accommodations for admin" sheetId="32" r:id="rId21"/>
     <sheet name="Statistical" sheetId="35" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="610">
   <si>
     <t>Test case id</t>
   </si>
@@ -2321,6 +2321,12 @@
   </si>
   <si>
     <t>The status of that accommodation is set at "Còn trống"</t>
+  </si>
+  <si>
+    <t>Test Designed date: 21/11/2018</t>
+  </si>
+  <si>
+    <t>Test Execution date:  21/11/2018</t>
   </si>
 </sst>
 </file>
@@ -2878,6 +2884,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2952,16 +2968,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3243,679 +3249,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="84" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="27"/>
+      <c r="F1" s="55"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88" t="s">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="86"/>
+      <c r="B2" s="101" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="53" t="s">
         <v>348</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="87" t="s">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="86"/>
+      <c r="B3" s="102" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="86" t="s">
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="54" t="s">
         <v>349</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
+    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:9" s="31" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="5" spans="1:10" s="86" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="99"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+    </row>
+    <row r="6" spans="1:10" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>34</v>
+    <row r="8" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>198</v>
+      <c r="D8" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>308</v>
+        <v>201</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="24" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>358</v>
+        <v>287</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H9" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="40" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="40" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="40" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="40" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>456</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>457</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>460</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>39</v>
-      </c>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
+    <mergeCell ref="A5:XFD6"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3924,347 +3497,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="85" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="87" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-    </row>
-    <row r="5" spans="1:10" s="82" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-    </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="12" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4280,61 +3516,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="84" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="84"/>
+      <c r="E1" s="88"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="84" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="88" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="88"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="87" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="86" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="86"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -4462,7 +3698,1320 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="89"/>
+      <c r="D1" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="88"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="86"/>
+      <c r="B2" s="88" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="92" t="s">
+        <v>608</v>
+      </c>
+      <c r="E2" s="92"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="86"/>
+      <c r="B3" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="90" t="s">
+        <v>609</v>
+      </c>
+      <c r="E3" s="90"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="12" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="54.140625" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="89"/>
+      <c r="D1" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="88"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="86"/>
+      <c r="B2" s="88" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="92"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="86"/>
+      <c r="B3" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="90"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="12" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="47" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="54.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="89"/>
+      <c r="D1" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="88"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="86"/>
+      <c r="B2" s="88" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="92"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="86"/>
+      <c r="B3" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="90"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="12" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="88"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="86"/>
+      <c r="B2" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="92"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="86"/>
+      <c r="B3" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="90"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -4483,61 +5032,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="84" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="84"/>
+      <c r="E1" s="88"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="84" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="88" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="88"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="87" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="86" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="86"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -4608,1174 +5157,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
-  <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="54.140625" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="85" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="87" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>175</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G16" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="H17" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>187</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G18" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="H18" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>194</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H19" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>223</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="H20" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>363</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:E4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="85" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="84" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="87" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="42" t="s">
-        <v>363</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:E4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="50" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="49" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>281</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>272</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>272</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -5792,71 +5178,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="84" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="84"/>
+      <c r="E1" s="88"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="84" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="88" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="88"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="87" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="86" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="86"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
+    <row r="5" spans="1:10" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -6201,8 +5587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6217,72 +5603,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="84" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="84"/>
+      <c r="F1" s="88"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="84" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="88" t="s">
         <v>345</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="88" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="87" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="86" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="86"/>
+      <c r="F3" s="90"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
+    <row r="5" spans="1:10" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -6414,7 +5800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -6431,57 +5817,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="84" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="84"/>
+      <c r="E1" s="88"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="84" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="88" t="s">
         <v>346</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="88"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="87" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="86" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="86"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
@@ -6641,31 +6027,31 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="84" t="s">
         <v>364</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="84" t="s">
         <v>369</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="84" t="s">
         <v>370</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="84" t="s">
         <v>367</v>
       </c>
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="85" t="s">
         <v>365</v>
       </c>
-      <c r="F11" s="110" t="s">
+      <c r="F11" s="85" t="s">
         <v>372</v>
       </c>
-      <c r="G11" s="110" t="s">
+      <c r="G11" s="85" t="s">
         <v>372</v>
       </c>
-      <c r="H11" s="109" t="s">
+      <c r="H11" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="109" t="s">
+      <c r="I11" s="84" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6751,57 +6137,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="84" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="84"/>
+      <c r="E1" s="88"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="84" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="88" t="s">
         <v>509</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="88"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="87" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="86" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="86"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
@@ -6889,7 +6275,7 @@
       <c r="E8" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="F8" s="107" t="s">
+      <c r="F8" s="82" t="s">
         <v>527</v>
       </c>
       <c r="G8" s="19" t="s">
@@ -6990,7 +6376,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="83" t="s">
         <v>558</v>
       </c>
       <c r="B12" s="80" t="s">
@@ -6999,7 +6385,7 @@
       <c r="C12" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="83" t="s">
         <v>367</v>
       </c>
       <c r="E12" s="40" t="s">
@@ -7036,304 +6422,682 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="84" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="84"/>
+      <c r="E1" s="88"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="84" t="s">
-        <v>483</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="88"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="88" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="92" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="92"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="87" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="86"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="90" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3" s="90"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" s="59" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
+    <row r="5" spans="1:9" s="31" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="78" t="s">
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="78" t="s">
+      <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="79" t="s">
+      <c r="I7" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>485</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>486</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>487</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>493</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>488</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>489</v>
-      </c>
-      <c r="H7" s="40" t="s">
+    <row r="8" spans="1:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I8" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>491</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>492</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>493</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="H8" s="40" t="s">
+    <row r="22" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I23" s="40" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>496</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>486</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>497</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>493</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="H9" s="40" t="s">
+    <row r="26" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>499</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>486</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>500</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>493</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>502</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>486</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>503</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>493</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>508</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>504</v>
-      </c>
-      <c r="H11" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="80" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>502</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>486</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>506</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>493</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>507</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>507</v>
-      </c>
-      <c r="H12" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="80" t="s">
+      <c r="I26" s="19" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7358,57 +7122,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="84" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="84"/>
+      <c r="E1" s="88"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="84" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="88" t="s">
         <v>541</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="88"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="87" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="86" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="86"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
@@ -7496,7 +7260,7 @@
       <c r="E8" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="F8" s="107" t="s">
+      <c r="F8" s="82" t="s">
         <v>584</v>
       </c>
       <c r="G8" s="19" t="s">
@@ -7509,7 +7273,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>586</v>
       </c>
@@ -7606,7 +7370,7 @@
       <c r="C12" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="83" t="s">
         <v>367</v>
       </c>
       <c r="E12" s="40" t="s">
@@ -7661,57 +7425,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="84" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="84"/>
+      <c r="E1" s="88"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="84" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="88" t="s">
         <v>565</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="88"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="87" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="86" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="86"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
@@ -7799,7 +7563,7 @@
       <c r="E8" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="F8" s="107" t="s">
+      <c r="F8" s="82" t="s">
         <v>551</v>
       </c>
       <c r="G8" s="19" t="s">
@@ -7812,7 +7576,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>550</v>
       </c>
@@ -7909,7 +7673,7 @@
       <c r="C12" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="83" t="s">
         <v>367</v>
       </c>
       <c r="E12" s="40" t="s">
@@ -7964,57 +7728,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="84" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="84"/>
+      <c r="E1" s="88"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="84" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="88" t="s">
         <v>573</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="88"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="87" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="86" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="86"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
@@ -8190,10 +7954,313 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="89"/>
+      <c r="D1" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="88"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="86"/>
+      <c r="B2" s="88" t="s">
+        <v>483</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="92"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="86"/>
+      <c r="B3" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="90"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" s="59" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>487</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>488</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>489</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>491</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>496</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>497</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>500</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>502</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>503</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>508</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>504</v>
+      </c>
+      <c r="H11" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>502</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>506</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>507</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>507</v>
+      </c>
+      <c r="H12" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8210,57 +8277,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="84" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="84"/>
+      <c r="E1" s="88"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="84" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="88" t="s">
         <v>344</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="88"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="87" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="86" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="86"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
@@ -8665,12 +8732,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A9" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8684,41 +8751,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="93" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="90"/>
+      <c r="C1" s="94"/>
       <c r="D1" s="71"/>
       <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="91" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="92"/>
+      <c r="C2" s="96"/>
       <c r="D2" s="73"/>
       <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="93" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="94"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="72"/>
       <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -8879,7 +8946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
@@ -8901,71 +8968,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="84" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="84"/>
+      <c r="E1" s="88"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="84" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="88" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="88"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="87" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="86" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="86"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="82" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
+    <row r="5" spans="1:10" s="86" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="99"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -9042,260 +9109,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="85" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="53" t="s">
-        <v>348</v>
-      </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="98" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="54" t="s">
-        <v>349</v>
-      </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-    </row>
-    <row r="5" spans="1:10" s="82" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-    </row>
-    <row r="6" spans="1:10" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="95"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="24" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A5:XFD6"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9310,14 +9129,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
       <c r="E1" s="67" t="s">
         <v>68</v>
       </c>
@@ -9326,12 +9145,12 @@
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="100" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="104" t="s">
         <v>378</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
       <c r="E2" s="68" t="s">
         <v>348</v>
       </c>
@@ -9339,12 +9158,12 @@
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="101" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="69" t="s">
         <v>349</v>
       </c>
@@ -9352,39 +9171,39 @@
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="102" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="82" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-    </row>
-    <row r="6" spans="1:10" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="95"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
+    <row r="5" spans="1:10" s="86" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="99"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+    </row>
+    <row r="6" spans="1:10" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -9633,160 +9452,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="85" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="84" t="s">
-        <v>268</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="87" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="81" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9801,61 +9470,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="84" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="84"/>
+      <c r="E1" s="88"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="84" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="88" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="88"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="87" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="86" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="86"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
@@ -10102,4 +9771,341 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="89"/>
+      <c r="D1" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="88"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="92"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="86"/>
+      <c r="B3" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="90"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:10" s="86" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="99"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+    </row>
+    <row r="6" spans="1:10" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="12" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>